--- a/Documentation/Documents/SQL Generator/Data Initial/Accounting.TblChartOfAccount.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Accounting.TblChartOfAccount.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5850" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="9360" windowHeight="3330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Link" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="QDC COA" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="853">
   <si>
     <t>RAW COA STRUCTURE</t>
   </si>
@@ -2144,6 +2145,444 @@
   </si>
   <si>
     <t>Dll…</t>
+  </si>
+  <si>
+    <t>Aset</t>
+  </si>
+  <si>
+    <t>Hutang</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>Pendapatan</t>
+  </si>
+  <si>
+    <t>HPP (COGS)</t>
+  </si>
+  <si>
+    <t>Biaya Adm &amp; Umum</t>
+  </si>
+  <si>
+    <t>Pendapatan Lain2</t>
+  </si>
+  <si>
+    <t>8-00.000.000</t>
+  </si>
+  <si>
+    <t>Biaya Lain2</t>
+  </si>
+  <si>
+    <t>Other Current Asset</t>
+  </si>
+  <si>
+    <t>7-0000</t>
+  </si>
+  <si>
+    <t>Aset Tetap</t>
+  </si>
+  <si>
+    <t>Aset Lancar</t>
+  </si>
+  <si>
+    <t>1-1102.01</t>
+  </si>
+  <si>
+    <t>1-1102.02</t>
+  </si>
+  <si>
+    <t>BCA IDR 001</t>
+  </si>
+  <si>
+    <t>1-1102.01.01</t>
+  </si>
+  <si>
+    <t>1-1102.01.02</t>
+  </si>
+  <si>
+    <t>BCA IDR 021</t>
+  </si>
+  <si>
+    <t>1-1102.02.01</t>
+  </si>
+  <si>
+    <t>BRI IDR 341</t>
+  </si>
+  <si>
+    <t>1-1102.01.03</t>
+  </si>
+  <si>
+    <t>MT IDR</t>
+  </si>
+  <si>
+    <t>1-1102.01.99</t>
+  </si>
+  <si>
+    <t>MT USD</t>
+  </si>
+  <si>
+    <t>1-1102.02.99</t>
+  </si>
+  <si>
+    <t>BNI USD 322</t>
+  </si>
+  <si>
+    <t>1-1101.01</t>
+  </si>
+  <si>
+    <t>PettyCash IDR</t>
+  </si>
+  <si>
+    <t>1-1101.01.01</t>
+  </si>
+  <si>
+    <t>Petty Cash IDR Kantor Pusat</t>
+  </si>
+  <si>
+    <t>1-1101.01.02</t>
+  </si>
+  <si>
+    <t>Petty Cash IDR Project ABC</t>
+  </si>
+  <si>
+    <t>1-1101.01.03</t>
+  </si>
+  <si>
+    <t>Petty Cash IDR Project XYZ</t>
+  </si>
+  <si>
+    <t>LEVEL 3</t>
+  </si>
+  <si>
+    <t>LEVEL 4</t>
+  </si>
+  <si>
+    <t>LEVEL 5</t>
+  </si>
+  <si>
+    <t>LEVEL 6</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Piutang Usaha</t>
+  </si>
+  <si>
+    <t>1-1201.01</t>
+  </si>
+  <si>
+    <t>1-1201.02</t>
+  </si>
+  <si>
+    <t>1-1202</t>
+  </si>
+  <si>
+    <t>Cadangan Kerugian Piutang</t>
+  </si>
+  <si>
+    <t>1-1202.01</t>
+  </si>
+  <si>
+    <t>1-1202.02</t>
+  </si>
+  <si>
+    <t>Cadangan Kerugian Piutang IDR</t>
+  </si>
+  <si>
+    <t>Cadangan Kerugian Piutang USD</t>
+  </si>
+  <si>
+    <t>Piutang Non Usaha</t>
+  </si>
+  <si>
+    <t>1-1203.01</t>
+  </si>
+  <si>
+    <t>Piutang Non Usaha IDR</t>
+  </si>
+  <si>
+    <t>1-1204</t>
+  </si>
+  <si>
+    <t>Piutang Antar Perusahaan</t>
+  </si>
+  <si>
+    <t>1-1204.01</t>
+  </si>
+  <si>
+    <t>Piutang Antar Perusahaan - IDR</t>
+  </si>
+  <si>
+    <t>1-1204.01.01</t>
+  </si>
+  <si>
+    <t>Piutang Antar Perusahaan - IDR - IMD</t>
+  </si>
+  <si>
+    <t>Piutang Antar Perusahaan - IDR - EML</t>
+  </si>
+  <si>
+    <t>1-1204.01.02</t>
+  </si>
+  <si>
+    <t>Inventory - IDR</t>
+  </si>
+  <si>
+    <t>1-1301</t>
+  </si>
+  <si>
+    <t>1-1301.01</t>
+  </si>
+  <si>
+    <t>1-1301.01.01</t>
+  </si>
+  <si>
+    <t>Inventory IDR Kantor Pusat</t>
+  </si>
+  <si>
+    <t>Inventory IDR Project ABC</t>
+  </si>
+  <si>
+    <t>1-1301.01.02</t>
+  </si>
+  <si>
+    <t>1-9900</t>
+  </si>
+  <si>
+    <t>Biaya Dibayar Dimuka</t>
+  </si>
+  <si>
+    <t>Pajak Dibayar Dimuka</t>
+  </si>
+  <si>
+    <t>Perlengkapan Kantor</t>
+  </si>
+  <si>
+    <t>Uang Muka</t>
+  </si>
+  <si>
+    <t>1-9901</t>
+  </si>
+  <si>
+    <t>1-9902</t>
+  </si>
+  <si>
+    <t>1-9903</t>
+  </si>
+  <si>
+    <t>1-9904</t>
+  </si>
+  <si>
+    <t>1-9905</t>
+  </si>
+  <si>
+    <t>1-9999</t>
+  </si>
+  <si>
+    <t>1-9901.01</t>
+  </si>
+  <si>
+    <t>1-9902.01</t>
+  </si>
+  <si>
+    <t>1-9903.01</t>
+  </si>
+  <si>
+    <t>1-9999.01</t>
+  </si>
+  <si>
+    <t>Paid in Advance - IDR</t>
+  </si>
+  <si>
+    <t>Suspense - IDR</t>
+  </si>
+  <si>
+    <t>Security Deposit - IDR</t>
+  </si>
+  <si>
+    <t>Other Prepayment - IDR</t>
+  </si>
+  <si>
+    <t>VAT IN</t>
+  </si>
+  <si>
+    <t>1-1501</t>
+  </si>
+  <si>
+    <t>1-1502</t>
+  </si>
+  <si>
+    <t>1-1503</t>
+  </si>
+  <si>
+    <t>1-9904.01</t>
+  </si>
+  <si>
+    <t>1-9905.01</t>
+  </si>
+  <si>
+    <t>Unbilled Receivable - IDR</t>
+  </si>
+  <si>
+    <t>Work in Progress - IDR</t>
+  </si>
+  <si>
+    <t>1-1504</t>
+  </si>
+  <si>
+    <t>1-1501.01</t>
+  </si>
+  <si>
+    <t>1-1502.01</t>
+  </si>
+  <si>
+    <t>1-1503.01</t>
+  </si>
+  <si>
+    <t>1-1504.01</t>
+  </si>
+  <si>
+    <t>VAT IN - IDR</t>
+  </si>
+  <si>
+    <t>Prepaid Tax 22 - IDR</t>
+  </si>
+  <si>
+    <t>Prepaid Tax 23 - IDR</t>
+  </si>
+  <si>
+    <t>Prepaid Tax 25 - IDR</t>
+  </si>
+  <si>
+    <t>Investasi Jangka Panjang</t>
+  </si>
+  <si>
+    <t>Investasi Saham</t>
+  </si>
+  <si>
+    <t>1-2101</t>
+  </si>
+  <si>
+    <t>Investasi Saham IMD</t>
+  </si>
+  <si>
+    <t>Investasi Saham EML</t>
+  </si>
+  <si>
+    <t>1-2101.01</t>
+  </si>
+  <si>
+    <t>1-2102</t>
+  </si>
+  <si>
+    <t>1-2103</t>
+  </si>
+  <si>
+    <t>1-2102.01</t>
+  </si>
+  <si>
+    <t>1-2103.01</t>
+  </si>
+  <si>
+    <t>Investasi Saham IMD - IDR</t>
+  </si>
+  <si>
+    <t>Investasi Saham EML - IDR</t>
+  </si>
+  <si>
+    <t>Investasi Saham DHD - IDR</t>
+  </si>
+  <si>
+    <t>Aktiva Tetap</t>
+  </si>
+  <si>
+    <t>1-3200</t>
+  </si>
+  <si>
+    <t>1-3101</t>
+  </si>
+  <si>
+    <t>1-3102</t>
+  </si>
+  <si>
+    <t>1-3103</t>
+  </si>
+  <si>
+    <t>1-3104</t>
+  </si>
+  <si>
+    <t>1-3105</t>
+  </si>
+  <si>
+    <t>1-3106</t>
+  </si>
+  <si>
+    <t>1-3107</t>
+  </si>
+  <si>
+    <t>1-3108</t>
+  </si>
+  <si>
+    <t>1-3109</t>
+  </si>
+  <si>
+    <t>1-3110</t>
+  </si>
+  <si>
+    <t>Acc Penyusutan</t>
+  </si>
+  <si>
+    <t>1-3201</t>
+  </si>
+  <si>
+    <t>1-3202</t>
+  </si>
+  <si>
+    <t>1-3203</t>
+  </si>
+  <si>
+    <t>1-3204</t>
+  </si>
+  <si>
+    <t>1-3205</t>
+  </si>
+  <si>
+    <t>1-3206</t>
+  </si>
+  <si>
+    <t>1-3207</t>
+  </si>
+  <si>
+    <t>1-3208</t>
+  </si>
+  <si>
+    <t>1-3209</t>
+  </si>
+  <si>
+    <t>1-3210</t>
+  </si>
+  <si>
+    <t>1-3111</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Aktiva Lain2</t>
+  </si>
+  <si>
+    <t>Aktiva Tetap Tidak Berwujud</t>
+  </si>
+  <si>
+    <t>Pre Ops Project</t>
+  </si>
+  <si>
+    <t>1-5100</t>
+  </si>
+  <si>
+    <t>1-5103</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2653,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2237,12 +2676,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2273,6 +2736,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2784,11 +3268,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AO344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="18" ySplit="4" topLeftCell="S90" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="18" ySplit="4" topLeftCell="S109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
+      <selection pane="bottomRight" activeCell="Q115" sqref="Q115:Q117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37459,4 +37943,1817 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="8" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22" t="s">
+        <v>723</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+    </row>
+    <row r="26" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+    </row>
+    <row r="32" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+    </row>
+    <row r="39" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>790</v>
+      </c>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="23" t="s">
+        <v>782</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>798</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+    </row>
+    <row r="44" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="23" t="s">
+        <v>784</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+    </row>
+    <row r="45" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>812</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>815</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+    </row>
+    <row r="46" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+    </row>
+    <row r="47" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="23" t="s">
+        <v>817</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>822</v>
+      </c>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+    </row>
+    <row r="48" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>823</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>718</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="J48" s="23"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+    </row>
+    <row r="49" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23" t="s">
+        <v>826</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J49" s="23"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J50" s="23"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="23" t="s">
+        <v>828</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J51" s="23"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+    </row>
+    <row r="52" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="23" t="s">
+        <v>829</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J52" s="23"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+    </row>
+    <row r="53" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J53" s="23"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J54" s="23"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J55" s="23"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" s="23"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="23" t="s">
+        <v>834</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J57" s="23"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="23" t="s">
+        <v>846</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J58" s="23"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+    </row>
+    <row r="59" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23" t="s">
+        <v>824</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="J59" s="23"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+    </row>
+    <row r="60" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="I60" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J60" s="23"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+    </row>
+    <row r="61" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J61" s="23"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+    </row>
+    <row r="62" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="J62" s="23"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+    </row>
+    <row r="63" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J63" s="23"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+    </row>
+    <row r="64" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J64" s="23"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+    </row>
+    <row r="65" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="J65" s="23"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="J66" s="23"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+    </row>
+    <row r="67" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="J67" s="23"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+    </row>
+    <row r="68" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="J68" s="23"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+    </row>
+    <row r="69" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="F69" s="23"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+    </row>
+    <row r="70" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="J70" s="23"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+    </row>
+    <row r="71" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="J71" s="23"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+    </row>
+    <row r="72" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="J72" s="23"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="D74" s="23"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="22"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="D78" s="23"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="22"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="D81" s="23"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="22"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="22"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="D87" s="23"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="22"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="23" t="s">
+        <v>717</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="22"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentation/Documents/SQL Generator/Data Initial/Accounting.TblChartOfAccount.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Accounting.TblChartOfAccount.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1066">
   <si>
     <t>RAW COA STRUCTURE</t>
   </si>
@@ -2583,6 +2583,645 @@
   </si>
   <si>
     <t>1-5103</t>
+  </si>
+  <si>
+    <t>Hutang lancar</t>
+  </si>
+  <si>
+    <t>Hutang Jangka Panjang</t>
+  </si>
+  <si>
+    <t>2-2000</t>
+  </si>
+  <si>
+    <t>Hutang Dagang</t>
+  </si>
+  <si>
+    <t>Biaya yang ditangguhkan</t>
+  </si>
+  <si>
+    <t>2-3000</t>
+  </si>
+  <si>
+    <t>Hutang Lain2</t>
+  </si>
+  <si>
+    <t>Hutang Pajak</t>
+  </si>
+  <si>
+    <t>2-1302</t>
+  </si>
+  <si>
+    <t>2-1303</t>
+  </si>
+  <si>
+    <t>2-1304</t>
+  </si>
+  <si>
+    <t>2-1305</t>
+  </si>
+  <si>
+    <t>2-1306</t>
+  </si>
+  <si>
+    <t>2-1307</t>
+  </si>
+  <si>
+    <t>2-1308</t>
+  </si>
+  <si>
+    <t>2-1309</t>
+  </si>
+  <si>
+    <t>Witholding Tax 21</t>
+  </si>
+  <si>
+    <t>Witholding Tax 22</t>
+  </si>
+  <si>
+    <t>Witholding Tax 25</t>
+  </si>
+  <si>
+    <t>Witholding Tax 23</t>
+  </si>
+  <si>
+    <t>Witholding Tax 4(2)</t>
+  </si>
+  <si>
+    <t>2-1500</t>
+  </si>
+  <si>
+    <t>2-1100.01</t>
+  </si>
+  <si>
+    <t>2-1100.02</t>
+  </si>
+  <si>
+    <t>Hutang Dagang - IDR</t>
+  </si>
+  <si>
+    <t>Hutang Dagang - USD</t>
+  </si>
+  <si>
+    <t>Hutang Dagang - AUD</t>
+  </si>
+  <si>
+    <t>2-3001</t>
+  </si>
+  <si>
+    <t>2-2001</t>
+  </si>
+  <si>
+    <t>2-1600</t>
+  </si>
+  <si>
+    <t>Hutang Karyawan</t>
+  </si>
+  <si>
+    <t>Hutang Pemegang Saham</t>
+  </si>
+  <si>
+    <t>2-2002</t>
+  </si>
+  <si>
+    <t>2-1700</t>
+  </si>
+  <si>
+    <t>Hutang Antar Perusahaan</t>
+  </si>
+  <si>
+    <t>2-1601</t>
+  </si>
+  <si>
+    <t>Hutang Antar Perusahaan - IMD</t>
+  </si>
+  <si>
+    <t>Hutang Antar Perusahaan - DHD</t>
+  </si>
+  <si>
+    <t>Hutang Antar Perusahaan - EML</t>
+  </si>
+  <si>
+    <t>2-1602</t>
+  </si>
+  <si>
+    <t>2-1603</t>
+  </si>
+  <si>
+    <t>2-3003</t>
+  </si>
+  <si>
+    <t>2-3099</t>
+  </si>
+  <si>
+    <t>2-3004</t>
+  </si>
+  <si>
+    <t>4-4000</t>
+  </si>
+  <si>
+    <t>4-5000</t>
+  </si>
+  <si>
+    <t>4-6000</t>
+  </si>
+  <si>
+    <t>Cost of Labor</t>
+  </si>
+  <si>
+    <t>Indirect Cost</t>
+  </si>
+  <si>
+    <t>5-1001</t>
+  </si>
+  <si>
+    <t>5-1002</t>
+  </si>
+  <si>
+    <t>5-1003</t>
+  </si>
+  <si>
+    <t>5-1004</t>
+  </si>
+  <si>
+    <t>5-1005</t>
+  </si>
+  <si>
+    <t>5-1006</t>
+  </si>
+  <si>
+    <t>5-1007</t>
+  </si>
+  <si>
+    <t>5-1008</t>
+  </si>
+  <si>
+    <t>5-1009</t>
+  </si>
+  <si>
+    <t>5-2001</t>
+  </si>
+  <si>
+    <t>5-2002</t>
+  </si>
+  <si>
+    <t>5-2003</t>
+  </si>
+  <si>
+    <t>5-2004</t>
+  </si>
+  <si>
+    <t>5-2006</t>
+  </si>
+  <si>
+    <t>5-2007</t>
+  </si>
+  <si>
+    <t>5-2008</t>
+  </si>
+  <si>
+    <t>5-2009</t>
+  </si>
+  <si>
+    <t>5-2011</t>
+  </si>
+  <si>
+    <t>5-2012</t>
+  </si>
+  <si>
+    <t>5-2013</t>
+  </si>
+  <si>
+    <t>5-2014</t>
+  </si>
+  <si>
+    <t>5-2015</t>
+  </si>
+  <si>
+    <t>5-2016</t>
+  </si>
+  <si>
+    <t>5-2017</t>
+  </si>
+  <si>
+    <t>5-2018</t>
+  </si>
+  <si>
+    <t>5-2019</t>
+  </si>
+  <si>
+    <t>5-3001</t>
+  </si>
+  <si>
+    <t>5-3002</t>
+  </si>
+  <si>
+    <t>5-3003</t>
+  </si>
+  <si>
+    <t>5-3004</t>
+  </si>
+  <si>
+    <t>5-3005</t>
+  </si>
+  <si>
+    <t>5-3006</t>
+  </si>
+  <si>
+    <t>5-3007</t>
+  </si>
+  <si>
+    <t>5-3008</t>
+  </si>
+  <si>
+    <t>5-3009</t>
+  </si>
+  <si>
+    <t>5-3011</t>
+  </si>
+  <si>
+    <t>5-3012</t>
+  </si>
+  <si>
+    <t>5-3013</t>
+  </si>
+  <si>
+    <t>5-3014</t>
+  </si>
+  <si>
+    <t>5-3015</t>
+  </si>
+  <si>
+    <t>5-3016</t>
+  </si>
+  <si>
+    <t>5-3017</t>
+  </si>
+  <si>
+    <t>5-3018</t>
+  </si>
+  <si>
+    <t>5-3019</t>
+  </si>
+  <si>
+    <t>5-3021</t>
+  </si>
+  <si>
+    <t>5-3022</t>
+  </si>
+  <si>
+    <t>5-3023</t>
+  </si>
+  <si>
+    <t>5-3024</t>
+  </si>
+  <si>
+    <t>5-3025</t>
+  </si>
+  <si>
+    <t>5-3026</t>
+  </si>
+  <si>
+    <t>5-3027</t>
+  </si>
+  <si>
+    <t>5-3028</t>
+  </si>
+  <si>
+    <t>5-3029</t>
+  </si>
+  <si>
+    <t>5-3031</t>
+  </si>
+  <si>
+    <t>5-3032</t>
+  </si>
+  <si>
+    <t>5-3033</t>
+  </si>
+  <si>
+    <t>5-3034</t>
+  </si>
+  <si>
+    <t>5-3035</t>
+  </si>
+  <si>
+    <t>5-3036</t>
+  </si>
+  <si>
+    <t>5-3037</t>
+  </si>
+  <si>
+    <t>5-3038</t>
+  </si>
+  <si>
+    <t>5-3039</t>
+  </si>
+  <si>
+    <t>5-3041</t>
+  </si>
+  <si>
+    <t>5-3042</t>
+  </si>
+  <si>
+    <t>5-3043</t>
+  </si>
+  <si>
+    <t>5-3044</t>
+  </si>
+  <si>
+    <t>5-3045</t>
+  </si>
+  <si>
+    <t>5-3046</t>
+  </si>
+  <si>
+    <t>5-3047</t>
+  </si>
+  <si>
+    <t>5-3048</t>
+  </si>
+  <si>
+    <t>5-3049</t>
+  </si>
+  <si>
+    <t>6-0001</t>
+  </si>
+  <si>
+    <t>6-0002</t>
+  </si>
+  <si>
+    <t>6-0003</t>
+  </si>
+  <si>
+    <t>6-0004</t>
+  </si>
+  <si>
+    <t>6-0005</t>
+  </si>
+  <si>
+    <t>6-0006</t>
+  </si>
+  <si>
+    <t>6-0007</t>
+  </si>
+  <si>
+    <t>6-0008</t>
+  </si>
+  <si>
+    <t>6-0009</t>
+  </si>
+  <si>
+    <t>6-0010</t>
+  </si>
+  <si>
+    <t>6-0011</t>
+  </si>
+  <si>
+    <t>6-0012</t>
+  </si>
+  <si>
+    <t>6-0013</t>
+  </si>
+  <si>
+    <t>6-0014</t>
+  </si>
+  <si>
+    <t>6-0015</t>
+  </si>
+  <si>
+    <t>6-0016</t>
+  </si>
+  <si>
+    <t>6-0017</t>
+  </si>
+  <si>
+    <t>6-0018</t>
+  </si>
+  <si>
+    <t>6-0019</t>
+  </si>
+  <si>
+    <t>6-0020</t>
+  </si>
+  <si>
+    <t>6-0021</t>
+  </si>
+  <si>
+    <t>6-0022</t>
+  </si>
+  <si>
+    <t>6-0023</t>
+  </si>
+  <si>
+    <t>6-0024</t>
+  </si>
+  <si>
+    <t>6-0025</t>
+  </si>
+  <si>
+    <t>6-0026</t>
+  </si>
+  <si>
+    <t>6-0027</t>
+  </si>
+  <si>
+    <t>6-0028</t>
+  </si>
+  <si>
+    <t>6-0029</t>
+  </si>
+  <si>
+    <t>6-0030</t>
+  </si>
+  <si>
+    <t>6-0031</t>
+  </si>
+  <si>
+    <t>6-0032</t>
+  </si>
+  <si>
+    <t>6-0033</t>
+  </si>
+  <si>
+    <t>6-0034</t>
+  </si>
+  <si>
+    <t>6-0035</t>
+  </si>
+  <si>
+    <t>6-0036</t>
+  </si>
+  <si>
+    <t>6-0037</t>
+  </si>
+  <si>
+    <t>6-0038</t>
+  </si>
+  <si>
+    <t>6-0039</t>
+  </si>
+  <si>
+    <t>6-0040</t>
+  </si>
+  <si>
+    <t>6-0041</t>
+  </si>
+  <si>
+    <t>6-0042</t>
+  </si>
+  <si>
+    <t>6-0043</t>
+  </si>
+  <si>
+    <t>6-0044</t>
+  </si>
+  <si>
+    <t>6-0045</t>
+  </si>
+  <si>
+    <t>6-0046</t>
+  </si>
+  <si>
+    <t>6-0047</t>
+  </si>
+  <si>
+    <t>6-0048</t>
+  </si>
+  <si>
+    <t>6-0049</t>
+  </si>
+  <si>
+    <t>6-0050</t>
+  </si>
+  <si>
+    <t>6-0051</t>
+  </si>
+  <si>
+    <t>6-0052</t>
+  </si>
+  <si>
+    <t>6-0053</t>
+  </si>
+  <si>
+    <t>6-0054</t>
+  </si>
+  <si>
+    <t>6-0055</t>
+  </si>
+  <si>
+    <t>6-0056</t>
+  </si>
+  <si>
+    <t>6-0057</t>
+  </si>
+  <si>
+    <t>6-0058</t>
+  </si>
+  <si>
+    <t>6-0059</t>
+  </si>
+  <si>
+    <t>6-0060</t>
+  </si>
+  <si>
+    <t>6-0061</t>
+  </si>
+  <si>
+    <t>6-0062</t>
+  </si>
+  <si>
+    <t>6-0063</t>
+  </si>
+  <si>
+    <t>6-0064</t>
+  </si>
+  <si>
+    <t>6-0065</t>
+  </si>
+  <si>
+    <t>6-0066</t>
+  </si>
+  <si>
+    <t>6-0067</t>
+  </si>
+  <si>
+    <t>6-0068</t>
+  </si>
+  <si>
+    <t>7-0100</t>
+  </si>
+  <si>
+    <t>7-0200</t>
+  </si>
+  <si>
+    <t>7-0300</t>
+  </si>
+  <si>
+    <t>7-0400</t>
+  </si>
+  <si>
+    <t>7-0500</t>
+  </si>
+  <si>
+    <t>7-0600</t>
+  </si>
+  <si>
+    <t>7-0700</t>
+  </si>
+  <si>
+    <t>7-0701</t>
+  </si>
+  <si>
+    <t>7-0702</t>
+  </si>
+  <si>
+    <t>Income(loss) Subsidiary IMD</t>
+  </si>
+  <si>
+    <t>Income(loss) Subsidiary EML</t>
+  </si>
+  <si>
+    <t>7-0703</t>
+  </si>
+  <si>
+    <t>Tax Expenses</t>
+  </si>
+  <si>
+    <t>7-0704</t>
+  </si>
+  <si>
+    <t>Income Tax</t>
+  </si>
+  <si>
+    <t>8-0100</t>
+  </si>
+  <si>
+    <t>8-0200</t>
+  </si>
+  <si>
+    <t>Late Charges</t>
+  </si>
+  <si>
+    <t>8-0101</t>
+  </si>
+  <si>
+    <t>8-0102</t>
+  </si>
+  <si>
+    <t>8-0201</t>
+  </si>
+  <si>
+    <t>8-0202</t>
+  </si>
+  <si>
+    <t>8-0300</t>
+  </si>
+  <si>
+    <t>8-0301</t>
+  </si>
+  <si>
+    <t>3-9000</t>
   </si>
 </sst>
 </file>
@@ -2633,7 +3272,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2649,6 +3288,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2705,7 +3362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2731,17 +3388,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2758,6 +3406,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3269,10 +3935,10 @@
   <dimension ref="A2:AO344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="18" ySplit="4" topLeftCell="S109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="4" topLeftCell="S335" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q115" sqref="Q115:Q117"/>
+      <selection pane="bottomRight" activeCell="H343" sqref="H343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,53 +3967,53 @@
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="F3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="6"/>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="15" t="s">
+      <c r="AD3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
       <c r="AN3" s="6"/>
       <c r="AO3" s="8" t="s">
         <v>673</v>
@@ -20264,7 +20930,7 @@
       <c r="O171" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="Q171" s="1" t="str">
+      <c r="Q171" s="26" t="str">
         <f t="shared" si="64"/>
         <v>Opening Balance - Material</v>
       </c>
@@ -20366,7 +21032,7 @@
       <c r="O172" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="Q172" s="1" t="str">
+      <c r="Q172" s="26" t="str">
         <f t="shared" si="64"/>
         <v>Opening Balance - Supplies</v>
       </c>
@@ -20468,7 +21134,7 @@
       <c r="O173" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="Q173" s="1" t="str">
+      <c r="Q173" s="26" t="str">
         <f t="shared" si="64"/>
         <v>Purchase - Material</v>
       </c>
@@ -20570,7 +21236,7 @@
       <c r="O174" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="Q174" s="1" t="str">
+      <c r="Q174" s="26" t="str">
         <f t="shared" si="64"/>
         <v>Purchase - Supplies</v>
       </c>
@@ -20672,7 +21338,7 @@
       <c r="O175" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="Q175" s="1" t="str">
+      <c r="Q175" s="26" t="str">
         <f t="shared" si="64"/>
         <v>Ending Balance - Material</v>
       </c>
@@ -20774,7 +21440,7 @@
       <c r="O176" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="Q176" s="1" t="str">
+      <c r="Q176" s="26" t="str">
         <f t="shared" si="64"/>
         <v>Ending Balance - Supplies</v>
       </c>
@@ -20876,7 +21542,7 @@
       <c r="O177" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q177" s="1" t="str">
+      <c r="Q177" s="26" t="str">
         <f t="shared" si="64"/>
         <v>Material Used</v>
       </c>
@@ -20978,7 +21644,7 @@
       <c r="O178" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="Q178" s="1" t="str">
+      <c r="Q178" s="26" t="str">
         <f t="shared" si="64"/>
         <v>Supplies Used</v>
       </c>
@@ -21080,7 +21746,7 @@
       <c r="O179" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="Q179" s="1" t="str">
+      <c r="Q179" s="26" t="str">
         <f t="shared" si="64"/>
         <v>Material Other</v>
       </c>
@@ -21182,7 +21848,7 @@
       <c r="O180" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="Q180" s="1" t="str">
+      <c r="Q180" s="26" t="str">
         <f t="shared" si="64"/>
         <v>IT Hardware Purchase</v>
       </c>
@@ -21386,7 +22052,7 @@
       <c r="O182" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="Q182" s="1" t="str">
+      <c r="Q182" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Salary Daily Worker</v>
       </c>
@@ -21488,7 +22154,7 @@
       <c r="O183" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="Q183" s="1" t="str">
+      <c r="Q183" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Salary Direct</v>
       </c>
@@ -21590,7 +22256,7 @@
       <c r="O184" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="Q184" s="1" t="str">
+      <c r="Q184" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Salary Indirect</v>
       </c>
@@ -21692,7 +22358,7 @@
       <c r="O185" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="Q185" s="1" t="str">
+      <c r="Q185" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Overtime Direct</v>
       </c>
@@ -21794,7 +22460,7 @@
       <c r="O186" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="Q186" s="1" t="str">
+      <c r="Q186" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Overtime Indirect</v>
       </c>
@@ -21896,7 +22562,7 @@
       <c r="O187" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="Q187" s="1" t="str">
+      <c r="Q187" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Jamsostek Direct</v>
       </c>
@@ -21998,7 +22664,7 @@
       <c r="O188" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="Q188" s="1" t="str">
+      <c r="Q188" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Jamsostek Indirect</v>
       </c>
@@ -22100,7 +22766,7 @@
       <c r="O189" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="Q189" s="1" t="str">
+      <c r="Q189" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Bonus,THR-Direct</v>
       </c>
@@ -22202,7 +22868,7 @@
       <c r="O190" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="Q190" s="1" t="str">
+      <c r="Q190" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Performance Bonus-Direct</v>
       </c>
@@ -22304,7 +22970,7 @@
       <c r="O191" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="Q191" s="1" t="str">
+      <c r="Q191" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Bonus,THR-Indirect</v>
       </c>
@@ -22406,7 +23072,7 @@
       <c r="O192" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="Q192" s="1" t="str">
+      <c r="Q192" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Performance Bonus-Indirect</v>
       </c>
@@ -22508,7 +23174,7 @@
       <c r="O193" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="Q193" s="1" t="str">
+      <c r="Q193" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Personal Income Tax-Direct</v>
       </c>
@@ -22610,7 +23276,7 @@
       <c r="O194" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="Q194" s="1" t="str">
+      <c r="Q194" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Personal Income Tax-Indirect</v>
       </c>
@@ -22712,7 +23378,7 @@
       <c r="O195" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="Q195" s="1" t="str">
+      <c r="Q195" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Uniform,Protect Clothe-Direct</v>
       </c>
@@ -22814,7 +23480,7 @@
       <c r="O196" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="Q196" s="1" t="str">
+      <c r="Q196" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Uniform,Protect Cloth-Indirect</v>
       </c>
@@ -22916,7 +23582,7 @@
       <c r="O197" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="Q197" s="1" t="str">
+      <c r="Q197" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Business Trip Allowance</v>
       </c>
@@ -23018,7 +23684,7 @@
       <c r="O198" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="Q198" s="1" t="str">
+      <c r="Q198" s="27" t="str">
         <f t="shared" si="64"/>
         <v>Meal</v>
       </c>
@@ -23120,7 +23786,7 @@
       <c r="O199" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="Q199" s="1" t="str">
+      <c r="Q199" s="27" t="str">
         <f t="shared" ref="Q199:Q262" si="86">D199</f>
         <v>Severance Pay - Project</v>
       </c>
@@ -23222,7 +23888,7 @@
       <c r="O200" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="Q200" s="1" t="str">
+      <c r="Q200" s="27" t="str">
         <f t="shared" si="86"/>
         <v>Sub Contractor</v>
       </c>
@@ -23426,7 +24092,7 @@
       <c r="O202" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="Q202" s="1" t="str">
+      <c r="Q202" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Consumables</v>
       </c>
@@ -23528,7 +24194,7 @@
       <c r="O203" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="Q203" s="1" t="str">
+      <c r="Q203" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Spare Parts</v>
       </c>
@@ -23630,7 +24296,7 @@
       <c r="O204" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="Q204" s="1" t="str">
+      <c r="Q204" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Tools</v>
       </c>
@@ -23732,7 +24398,7 @@
       <c r="O205" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="Q205" s="1" t="str">
+      <c r="Q205" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Utilities</v>
       </c>
@@ -23834,7 +24500,7 @@
       <c r="O206" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="Q206" s="1" t="str">
+      <c r="Q206" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Stationery &amp; Printing</v>
       </c>
@@ -23936,7 +24602,7 @@
       <c r="O207" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="Q207" s="1" t="str">
+      <c r="Q207" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Postage &amp; Courier Service</v>
       </c>
@@ -24038,7 +24704,7 @@
       <c r="O208" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="Q208" s="1" t="str">
+      <c r="Q208" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Telephone Expenses</v>
       </c>
@@ -24140,7 +24806,7 @@
       <c r="O209" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="Q209" s="1" t="str">
+      <c r="Q209" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Mobile Phone</v>
       </c>
@@ -24242,7 +24908,7 @@
       <c r="O210" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="Q210" s="1" t="str">
+      <c r="Q210" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Insurance Expenses</v>
       </c>
@@ -24344,7 +25010,7 @@
       <c r="O211" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="Q211" s="1" t="str">
+      <c r="Q211" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Property Rental/Lease</v>
       </c>
@@ -24446,7 +25112,7 @@
       <c r="O212" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="Q212" s="1" t="str">
+      <c r="Q212" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Hire of Other Plant &amp; Equipt</v>
       </c>
@@ -24548,7 +25214,7 @@
       <c r="O213" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="Q213" s="1" t="str">
+      <c r="Q213" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Property Repair &amp; Maintenance</v>
       </c>
@@ -24650,7 +25316,7 @@
       <c r="O214" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="Q214" s="1" t="str">
+      <c r="Q214" s="28" t="str">
         <f t="shared" si="86"/>
         <v>IT Expenses</v>
       </c>
@@ -24752,7 +25418,7 @@
       <c r="O215" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="Q215" s="1" t="str">
+      <c r="Q215" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Hire of Motor Vehicle</v>
       </c>
@@ -24854,7 +25520,7 @@
       <c r="O216" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="Q216" s="1" t="str">
+      <c r="Q216" s="28" t="str">
         <f t="shared" si="86"/>
         <v>MV-Fuel &amp; Oil</v>
       </c>
@@ -24956,7 +25622,7 @@
       <c r="O217" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="Q217" s="1" t="str">
+      <c r="Q217" s="28" t="str">
         <f t="shared" si="86"/>
         <v>MV-Repair &amp; Maintenance</v>
       </c>
@@ -25058,7 +25724,7 @@
       <c r="O218" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="Q218" s="1" t="str">
+      <c r="Q218" s="28" t="str">
         <f t="shared" si="86"/>
         <v>MV-Tyres, Tubes</v>
       </c>
@@ -25160,7 +25826,7 @@
       <c r="O219" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="Q219" s="1" t="str">
+      <c r="Q219" s="28" t="str">
         <f t="shared" si="86"/>
         <v>MV-Spare Parts</v>
       </c>
@@ -25262,7 +25928,7 @@
       <c r="O220" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q220" s="1" t="str">
+      <c r="Q220" s="28" t="str">
         <f t="shared" si="86"/>
         <v>MV-Accessories</v>
       </c>
@@ -25364,7 +26030,7 @@
       <c r="O221" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="Q221" s="1" t="str">
+      <c r="Q221" s="28" t="str">
         <f t="shared" si="86"/>
         <v>MV Other</v>
       </c>
@@ -25466,7 +26132,7 @@
       <c r="O222" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="Q222" s="1" t="str">
+      <c r="Q222" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Local Transport</v>
       </c>
@@ -25568,7 +26234,7 @@
       <c r="O223" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="Q223" s="1" t="str">
+      <c r="Q223" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Business Travelling</v>
       </c>
@@ -25670,7 +26336,7 @@
       <c r="O224" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="Q224" s="1" t="str">
+      <c r="Q224" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Travel &amp; Fares</v>
       </c>
@@ -25772,7 +26438,7 @@
       <c r="O225" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="Q225" s="1" t="str">
+      <c r="Q225" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Freight Expenses</v>
       </c>
@@ -25874,7 +26540,7 @@
       <c r="O226" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="Q226" s="1" t="str">
+      <c r="Q226" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Custom Clearance</v>
       </c>
@@ -25976,7 +26642,7 @@
       <c r="O227" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="Q227" s="1" t="str">
+      <c r="Q227" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Infrastructure</v>
       </c>
@@ -26078,7 +26744,7 @@
       <c r="O228" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q228" s="1" t="str">
+      <c r="Q228" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Tender Cost</v>
       </c>
@@ -26180,7 +26846,7 @@
       <c r="O229" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="Q229" s="1" t="str">
+      <c r="Q229" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Sitac Expenses</v>
       </c>
@@ -26282,7 +26948,7 @@
       <c r="O230" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="Q230" s="1" t="str">
+      <c r="Q230" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Loss, Damage &amp; Pinalty</v>
       </c>
@@ -26384,7 +27050,7 @@
       <c r="O231" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="Q231" s="1" t="str">
+      <c r="Q231" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Supervision Expenses</v>
       </c>
@@ -26486,7 +27152,7 @@
       <c r="O232" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="Q232" s="1" t="str">
+      <c r="Q232" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Power Supply</v>
       </c>
@@ -26588,7 +27254,7 @@
       <c r="O233" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="Q233" s="1" t="str">
+      <c r="Q233" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Civil  Work</v>
       </c>
@@ -26690,7 +27356,7 @@
       <c r="O234" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="Q234" s="1" t="str">
+      <c r="Q234" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Moblilization &amp; demobilization</v>
       </c>
@@ -26792,7 +27458,7 @@
       <c r="O235" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="Q235" s="1" t="str">
+      <c r="Q235" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Entertainment-Deductable</v>
       </c>
@@ -26894,7 +27560,7 @@
       <c r="O236" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="Q236" s="1" t="str">
+      <c r="Q236" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Entertainment-Undeductable</v>
       </c>
@@ -26996,7 +27662,7 @@
       <c r="O237" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="Q237" s="1" t="str">
+      <c r="Q237" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Non Meal Entertaint-Ded.</v>
       </c>
@@ -27098,7 +27764,7 @@
       <c r="O238" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="Q238" s="1" t="str">
+      <c r="Q238" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Non Meal Entertaint-Unded.</v>
       </c>
@@ -27200,7 +27866,7 @@
       <c r="O239" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="Q239" s="1" t="str">
+      <c r="Q239" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Donation</v>
       </c>
@@ -27302,7 +27968,7 @@
       <c r="O240" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="Q240" s="1" t="str">
+      <c r="Q240" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Building Improvement</v>
       </c>
@@ -27404,7 +28070,7 @@
       <c r="O241" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="Q241" s="1" t="str">
+      <c r="Q241" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Depre - IT Equipment</v>
       </c>
@@ -27506,7 +28172,7 @@
       <c r="O242" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="Q242" s="1" t="str">
+      <c r="Q242" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Office Machine &amp; Equip</v>
       </c>
@@ -27608,7 +28274,7 @@
       <c r="O243" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="Q243" s="1" t="str">
+      <c r="Q243" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Sundry Plant &amp; Equipt</v>
       </c>
@@ -27710,7 +28376,7 @@
       <c r="O244" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="Q244" s="1" t="str">
+      <c r="Q244" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Test Equipment</v>
       </c>
@@ -27812,7 +28478,7 @@
       <c r="O245" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="Q245" s="1" t="str">
+      <c r="Q245" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Motor Vehicle</v>
       </c>
@@ -27914,7 +28580,7 @@
       <c r="O246" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="Q246" s="1" t="str">
+      <c r="Q246" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Tools</v>
       </c>
@@ -28016,7 +28682,7 @@
       <c r="O247" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="Q247" s="1" t="str">
+      <c r="Q247" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Furniture Fitting</v>
       </c>
@@ -28118,7 +28784,7 @@
       <c r="O248" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="Q248" s="1" t="str">
+      <c r="Q248" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Mobile Phone</v>
       </c>
@@ -28220,7 +28886,7 @@
       <c r="O249" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="Q249" s="1" t="str">
+      <c r="Q249" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Customer Claims</v>
       </c>
@@ -28322,7 +28988,7 @@
       <c r="O250" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="Q250" s="1" t="str">
+      <c r="Q250" s="28" t="str">
         <f t="shared" si="86"/>
         <v>Other Overhead</v>
       </c>
@@ -37947,1811 +38613,5445 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M95"/>
+  <dimension ref="B2:M296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
+      <pane ySplit="3" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I273" sqref="I273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="4.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="8" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>742</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>743</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>744</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>745</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="16" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>707</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>719</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19" t="s">
         <v>734</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="19" t="s">
         <v>735</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19" t="s">
         <v>736</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="19" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19" t="s">
         <v>738</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="19" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19" t="s">
         <v>740</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="19" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19" t="s">
         <v>720</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19" t="s">
         <v>723</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="19" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19" t="s">
         <v>724</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="19" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="19" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="19" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19" t="s">
         <v>721</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="19" t="s">
         <v>683</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="19" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="M20" s="19" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="19" t="s">
         <v>747</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="19" t="s">
         <v>748</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19" t="s">
         <v>749</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-    </row>
-    <row r="24" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22" t="s">
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="19" t="s">
         <v>751</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="19" t="s">
         <v>752</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="19" t="s">
         <v>754</v>
       </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19" t="s">
         <v>753</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="19" t="s">
         <v>755</v>
       </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-    </row>
-    <row r="26" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22" t="s">
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="19" t="s">
         <v>756</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="19" t="s">
         <v>757</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19" t="s">
         <v>759</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="19" t="s">
         <v>760</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="19" t="s">
         <v>761</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="19" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="19" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="19" t="s">
         <v>769</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="19" t="s">
         <v>767</v>
       </c>
-      <c r="L29" s="22" t="s">
+      <c r="L29" s="19" t="s">
         <v>770</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="M29" s="19" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19" t="s">
         <v>773</v>
       </c>
-      <c r="M30" s="22" t="s">
+      <c r="M30" s="19" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="19" t="s">
         <v>775</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-    </row>
-    <row r="32" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="19" t="s">
         <v>776</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="19" t="s">
         <v>793</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="J33" s="19" t="s">
         <v>803</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="K33" s="19" t="s">
         <v>807</v>
       </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="J34" s="22" t="s">
+      <c r="J34" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="K34" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19" t="s">
         <v>801</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="19" t="s">
         <v>809</v>
       </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-    </row>
-    <row r="36" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22" t="s">
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="19" t="s">
         <v>778</v>
       </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-    </row>
-    <row r="39" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20" t="s">
         <v>774</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="K39" s="22" t="s">
+      <c r="K39" s="19" t="s">
         <v>789</v>
       </c>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23" t="s">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20" t="s">
         <v>780</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="20" t="s">
         <v>786</v>
       </c>
-      <c r="K40" s="22" t="s">
+      <c r="K40" s="19" t="s">
         <v>790</v>
       </c>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="K41" s="22" t="s">
+      <c r="K41" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="20" t="s">
         <v>782</v>
       </c>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="J42" s="20" t="s">
         <v>797</v>
       </c>
-      <c r="K42" s="22" t="s">
+      <c r="K42" s="19" t="s">
         <v>799</v>
       </c>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="20" t="s">
         <v>783</v>
       </c>
-      <c r="I43" s="22" t="s">
+      <c r="I43" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="J43" s="20" t="s">
         <v>798</v>
       </c>
-      <c r="K43" s="22" t="s">
+      <c r="K43" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-    </row>
-    <row r="44" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="23" t="s">
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20" t="s">
         <v>784</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="J44" s="20" t="s">
         <v>788</v>
       </c>
-      <c r="K44" s="22" t="s">
+      <c r="K44" s="19" t="s">
         <v>792</v>
       </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-    </row>
-    <row r="45" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23" t="s">
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+    </row>
+    <row r="45" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="19" t="s">
         <v>811</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="I45" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="J45" s="20" t="s">
         <v>815</v>
       </c>
-      <c r="K45" s="22" t="s">
+      <c r="K45" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
     </row>
     <row r="46" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="23" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="20" t="s">
         <v>816</v>
       </c>
-      <c r="I46" s="22" t="s">
+      <c r="I46" s="19" t="s">
         <v>814</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="J46" s="20" t="s">
         <v>818</v>
       </c>
-      <c r="K46" s="22" t="s">
+      <c r="K46" s="19" t="s">
         <v>821</v>
       </c>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
     </row>
     <row r="47" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="23" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="20" t="s">
         <v>817</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I47" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="J47" s="20" t="s">
         <v>819</v>
       </c>
-      <c r="K47" s="22" t="s">
+      <c r="K47" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-    </row>
-    <row r="48" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23" t="s">
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="19" t="s">
         <v>823</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="19" t="s">
         <v>718</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" s="20" t="s">
         <v>825</v>
       </c>
-      <c r="I48" s="17" t="s">
+      <c r="I48" s="15" t="s">
         <v>847</v>
       </c>
-      <c r="J48" s="23"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
     </row>
     <row r="49" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23" t="s">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20" t="s">
         <v>826</v>
       </c>
-      <c r="I49" s="22" t="s">
+      <c r="I49" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="J49" s="23"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="23" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20" t="s">
         <v>827</v>
       </c>
-      <c r="I50" s="22" t="s">
+      <c r="I50" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="J50" s="23"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="23" t="s">
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20" t="s">
         <v>828</v>
       </c>
-      <c r="I51" s="22" t="s">
+      <c r="I51" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="J51" s="23"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
     </row>
     <row r="52" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="23" t="s">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="20" t="s">
         <v>829</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="I52" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="J52" s="23"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
     </row>
     <row r="53" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="23" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="I53" s="22" t="s">
+      <c r="I53" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="J53" s="23"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="23" t="s">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="20" t="s">
         <v>831</v>
       </c>
-      <c r="I54" s="22" t="s">
+      <c r="I54" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="J54" s="23"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="23" t="s">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="20" t="s">
         <v>832</v>
       </c>
-      <c r="I55" s="22" t="s">
+      <c r="I55" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="J55" s="23"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="23" t="s">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="20" t="s">
         <v>833</v>
       </c>
-      <c r="I56" s="22" t="s">
+      <c r="I56" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="J56" s="23"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="23" t="s">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="I57" s="22" t="s">
+      <c r="I57" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="J57" s="23"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="23" t="s">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="20" t="s">
         <v>846</v>
       </c>
-      <c r="I58" s="22" t="s">
+      <c r="I58" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="J58" s="23"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
     </row>
     <row r="59" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23" t="s">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20" t="s">
         <v>824</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="19" t="s">
         <v>835</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H59" s="20" t="s">
         <v>836</v>
       </c>
-      <c r="I59" s="22" t="s">
+      <c r="I59" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="J59" s="23"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
     </row>
     <row r="60" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="23" t="s">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="20" t="s">
         <v>837</v>
       </c>
-      <c r="I60" s="22" t="s">
+      <c r="I60" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="J60" s="23"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
     </row>
     <row r="61" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="23" t="s">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="20" t="s">
         <v>838</v>
       </c>
-      <c r="I61" s="22" t="s">
+      <c r="I61" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="J61" s="23"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
     </row>
     <row r="62" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="23" t="s">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="20" t="s">
         <v>839</v>
       </c>
-      <c r="I62" s="22" t="s">
+      <c r="I62" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="J62" s="23"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
     </row>
     <row r="63" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="23" t="s">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="20" t="s">
         <v>840</v>
       </c>
-      <c r="I63" s="22" t="s">
+      <c r="I63" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="J63" s="23"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
     </row>
     <row r="64" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="23" t="s">
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="I64" s="22" t="s">
+      <c r="I64" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="J64" s="23"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
     </row>
     <row r="65" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="23" t="s">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="I65" s="22" t="s">
+      <c r="I65" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="J65" s="23"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23" t="s">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="20" t="s">
         <v>843</v>
       </c>
-      <c r="I66" s="22" t="s">
+      <c r="I66" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="J66" s="23"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
     </row>
     <row r="67" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="23" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="20" t="s">
         <v>844</v>
       </c>
-      <c r="I67" s="22" t="s">
+      <c r="I67" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="J67" s="23"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
     </row>
     <row r="68" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="23" t="s">
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="20" t="s">
         <v>845</v>
       </c>
-      <c r="I68" s="22" t="s">
+      <c r="I68" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="J68" s="23"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-    </row>
-    <row r="69" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23" t="s">
+      <c r="J68" s="20"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+    </row>
+    <row r="69" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="19" t="s">
         <v>849</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
     </row>
     <row r="70" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23" t="s">
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="19" t="s">
         <v>848</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="20" t="s">
         <v>851</v>
       </c>
-      <c r="G70" s="22" t="s">
+      <c r="G70" s="19" t="s">
         <v>850</v>
       </c>
-      <c r="H70" s="23" t="s">
+      <c r="H70" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="I70" s="22" t="s">
+      <c r="I70" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="J70" s="23"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
     </row>
     <row r="71" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="23" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="I71" s="22" t="s">
+      <c r="I71" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="J71" s="23"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
     </row>
     <row r="72" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="23" t="s">
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="I72" s="22" t="s">
+      <c r="I72" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="J72" s="23"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="22"/>
+      <c r="D74" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20" t="s">
+        <v>875</v>
+      </c>
+      <c r="K74" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="L74" s="20"/>
+      <c r="M74" s="19"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="K75" s="19" t="s">
+        <v>878</v>
+      </c>
+      <c r="L75" s="20"/>
+      <c r="M75" s="19"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>879</v>
+      </c>
+      <c r="L76" s="20"/>
+      <c r="M76" s="19"/>
+    </row>
+    <row r="77" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>860</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="J78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="20" t="s">
+        <v>861</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="I80" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="I81" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="20" t="s">
+        <v>864</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>872</v>
+      </c>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+    </row>
+    <row r="84" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+    </row>
+    <row r="85" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="I86" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+    </row>
+    <row r="88" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+    </row>
+    <row r="89" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>889</v>
+      </c>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+    </row>
+    <row r="90" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>891</v>
+      </c>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+    </row>
+    <row r="91" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="20" t="s">
+        <v>893</v>
+      </c>
+      <c r="I91" s="19" t="s">
+        <v>890</v>
+      </c>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>883</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+    </row>
+    <row r="93" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="20" t="s">
+        <v>855</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="I93" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+    </row>
+    <row r="94" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="I94" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>859</v>
+      </c>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+    </row>
+    <row r="98" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="I98" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="I99" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C102" s="19" t="s">
         <v>709</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="22"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="23" t="s">
+      <c r="D102" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="F102" s="20"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="19"/>
+    </row>
+    <row r="103" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+    </row>
+    <row r="104" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C107" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="D81" s="23"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="22"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="23" t="s">
+      <c r="D107" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="F107" s="20"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="19"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B108" s="20"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="F108" s="20"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="19"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B109" s="20"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="F109" s="20"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="19"/>
+    </row>
+    <row r="110" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B110" s="20"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="20" t="s">
+        <v>897</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="F110" s="20"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="19"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="20"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="F111" s="20"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="19"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="19"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19"/>
+    </row>
+    <row r="114" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B114" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C114" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="22"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="22"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="23" t="s">
+      <c r="D114" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F114" s="20"/>
+      <c r="H114" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="I114" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="J114" s="20"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="19"/>
+    </row>
+    <row r="115" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B115" s="20"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="20"/>
+      <c r="H115" s="20" t="s">
+        <v>903</v>
+      </c>
+      <c r="I115" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="J115" s="20"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="19"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="20"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="20"/>
+      <c r="H116" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="I116" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="J116" s="20"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="19"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="20"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="20"/>
+      <c r="H117" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J117" s="20"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="19"/>
+    </row>
+    <row r="118" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B118" s="20"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="20"/>
+      <c r="H118" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="I118" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="J118" s="20"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="19"/>
+    </row>
+    <row r="119" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B119" s="20"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="20"/>
+      <c r="H119" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="I119" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="J119" s="20"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="20"/>
+      <c r="M119" s="19"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="20"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="20"/>
+      <c r="H120" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="I120" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="J120" s="20"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="19"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B121" s="20"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="20"/>
+      <c r="H121" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="I121" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="J121" s="20"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="20"/>
+      <c r="M121" s="19"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B122" s="20"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="20"/>
+      <c r="H122" s="20" t="s">
+        <v>910</v>
+      </c>
+      <c r="I122" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="J122" s="20"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="19"/>
+    </row>
+    <row r="123" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B123" s="20"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="20"/>
+      <c r="H123" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="I123" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="J123" s="20"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="19"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B124" s="20"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="19"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B125" s="20"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>900</v>
+      </c>
+      <c r="F125" s="20"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="20" t="s">
+        <v>911</v>
+      </c>
+      <c r="I125" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="J125" s="20"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="20"/>
+      <c r="M125" s="19"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B126" s="20"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="J126" s="20"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="20"/>
+      <c r="M126" s="19"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B127" s="20"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="20" t="s">
+        <v>913</v>
+      </c>
+      <c r="I127" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="J127" s="20"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="19"/>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B128" s="20"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="I128" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="J128" s="20"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="20"/>
+      <c r="M128" s="19"/>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B129" s="20"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="I129" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="J129" s="20"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="20"/>
+      <c r="M129" s="19"/>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B130" s="20"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="20" t="s">
+        <v>915</v>
+      </c>
+      <c r="I130" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="J130" s="20"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="20"/>
+      <c r="M130" s="19"/>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B131" s="20"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="I131" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="J131" s="20"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="19"/>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B132" s="20"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="20" t="s">
+        <v>917</v>
+      </c>
+      <c r="I132" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J132" s="20"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="20"/>
+      <c r="M132" s="19"/>
+    </row>
+    <row r="133" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B133" s="20"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="20" t="s">
+        <v>918</v>
+      </c>
+      <c r="I133" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="J133" s="20"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="20"/>
+      <c r="M133" s="19"/>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B134" s="20"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="I134" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="J134" s="20"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="20"/>
+      <c r="M134" s="19"/>
+    </row>
+    <row r="135" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B135" s="20"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="20" t="s">
+        <v>919</v>
+      </c>
+      <c r="I135" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="J135" s="20"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="20"/>
+      <c r="M135" s="19"/>
+    </row>
+    <row r="136" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B136" s="20"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="20" t="s">
+        <v>920</v>
+      </c>
+      <c r="I136" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="J136" s="20"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="20"/>
+      <c r="M136" s="19"/>
+    </row>
+    <row r="137" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B137" s="20"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="20" t="s">
+        <v>921</v>
+      </c>
+      <c r="I137" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="J137" s="20"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="20"/>
+      <c r="M137" s="19"/>
+    </row>
+    <row r="138" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B138" s="20"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="20" t="s">
+        <v>922</v>
+      </c>
+      <c r="I138" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="J138" s="20"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="20"/>
+      <c r="M138" s="19"/>
+    </row>
+    <row r="139" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B139" s="20"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="20" t="s">
+        <v>923</v>
+      </c>
+      <c r="I139" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="J139" s="20"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="20"/>
+      <c r="M139" s="19"/>
+    </row>
+    <row r="140" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B140" s="20"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="I140" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="J140" s="20"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="20"/>
+      <c r="M140" s="19"/>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B141" s="20"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="20" t="s">
+        <v>925</v>
+      </c>
+      <c r="I141" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="J141" s="20"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="20"/>
+      <c r="M141" s="19"/>
+    </row>
+    <row r="142" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B142" s="20"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="20" t="s">
+        <v>926</v>
+      </c>
+      <c r="I142" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="J142" s="20"/>
+      <c r="K142" s="19"/>
+      <c r="L142" s="20"/>
+      <c r="M142" s="19"/>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B143" s="20"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="20" t="s">
+        <v>927</v>
+      </c>
+      <c r="I143" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J143" s="20"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="20"/>
+      <c r="M143" s="19"/>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B144" s="20"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20"/>
+      <c r="K144" s="19"/>
+      <c r="L144" s="20"/>
+      <c r="M144" s="19"/>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B145" s="20"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>901</v>
+      </c>
+      <c r="F145" s="20"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="20" t="s">
+        <v>928</v>
+      </c>
+      <c r="I145" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="J145" s="20"/>
+      <c r="K145" s="19"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="19"/>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B146" s="20"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="20" t="s">
+        <v>929</v>
+      </c>
+      <c r="I146" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="J146" s="20"/>
+      <c r="K146" s="19"/>
+      <c r="L146" s="20"/>
+      <c r="M146" s="19"/>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B147" s="20"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="20" t="s">
+        <v>930</v>
+      </c>
+      <c r="I147" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J147" s="20"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="20"/>
+      <c r="M147" s="19"/>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B148" s="20"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="I148" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="J148" s="20"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="20"/>
+      <c r="M148" s="19"/>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B149" s="20"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="I149" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="J149" s="20"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="20"/>
+      <c r="M149" s="19"/>
+    </row>
+    <row r="150" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B150" s="20"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="20" t="s">
+        <v>933</v>
+      </c>
+      <c r="I150" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="J150" s="20"/>
+      <c r="K150" s="19"/>
+      <c r="L150" s="20"/>
+      <c r="M150" s="19"/>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B151" s="20"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="20" t="s">
+        <v>934</v>
+      </c>
+      <c r="I151" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="J151" s="20"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="20"/>
+      <c r="M151" s="19"/>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B152" s="20"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="20" t="s">
+        <v>935</v>
+      </c>
+      <c r="I152" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="J152" s="20"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="20"/>
+      <c r="M152" s="19"/>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B153" s="20"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="I153" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="J153" s="20"/>
+      <c r="K153" s="19"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="19"/>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B154" s="20"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="I154" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="J154" s="20"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="19"/>
+    </row>
+    <row r="155" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B155" s="20"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="20" t="s">
+        <v>937</v>
+      </c>
+      <c r="I155" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="J155" s="20"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="20"/>
+      <c r="M155" s="19"/>
+    </row>
+    <row r="156" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B156" s="20"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="20" t="s">
+        <v>938</v>
+      </c>
+      <c r="I156" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="J156" s="20"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="19"/>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B157" s="20"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="20" t="s">
+        <v>939</v>
+      </c>
+      <c r="I157" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="J157" s="20"/>
+      <c r="K157" s="19"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="19"/>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B158" s="20"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="20" t="s">
+        <v>940</v>
+      </c>
+      <c r="I158" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="J158" s="20"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="20"/>
+      <c r="M158" s="19"/>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B159" s="20"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="I159" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="J159" s="20"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="19"/>
+    </row>
+    <row r="160" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B160" s="20"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="20" t="s">
+        <v>942</v>
+      </c>
+      <c r="I160" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="J160" s="20"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="20"/>
+      <c r="M160" s="19"/>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B161" s="20"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="20" t="s">
+        <v>943</v>
+      </c>
+      <c r="I161" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="J161" s="20"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="20"/>
+      <c r="M161" s="19"/>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B162" s="20"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="I162" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J162" s="20"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="20"/>
+      <c r="M162" s="19"/>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B163" s="20"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="20" t="s">
+        <v>945</v>
+      </c>
+      <c r="I163" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="J163" s="20"/>
+      <c r="K163" s="19"/>
+      <c r="L163" s="20"/>
+      <c r="M163" s="19"/>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B164" s="20"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="I164" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="J164" s="20"/>
+      <c r="K164" s="19"/>
+      <c r="L164" s="20"/>
+      <c r="M164" s="19"/>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B165" s="20"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="20" t="s">
+        <v>946</v>
+      </c>
+      <c r="I165" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="J165" s="20"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="20"/>
+      <c r="M165" s="19"/>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B166" s="20"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="20" t="s">
+        <v>947</v>
+      </c>
+      <c r="I166" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="J166" s="20"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="20"/>
+      <c r="M166" s="19"/>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B167" s="20"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="20" t="s">
+        <v>948</v>
+      </c>
+      <c r="I167" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="J167" s="20"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="20"/>
+      <c r="M167" s="19"/>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B168" s="20"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="20" t="s">
+        <v>949</v>
+      </c>
+      <c r="I168" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J168" s="20"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="20"/>
+      <c r="M168" s="19"/>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B169" s="20"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="20" t="s">
+        <v>950</v>
+      </c>
+      <c r="I169" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="J169" s="20"/>
+      <c r="K169" s="19"/>
+      <c r="L169" s="20"/>
+      <c r="M169" s="19"/>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B170" s="20"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="I170" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="J170" s="20"/>
+      <c r="K170" s="19"/>
+      <c r="L170" s="20"/>
+      <c r="M170" s="19"/>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B171" s="20"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="20" t="s">
+        <v>952</v>
+      </c>
+      <c r="I171" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="J171" s="20"/>
+      <c r="K171" s="19"/>
+      <c r="L171" s="20"/>
+      <c r="M171" s="19"/>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B172" s="20"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="20" t="s">
+        <v>953</v>
+      </c>
+      <c r="I172" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="J172" s="20"/>
+      <c r="K172" s="19"/>
+      <c r="L172" s="20"/>
+      <c r="M172" s="19"/>
+    </row>
+    <row r="173" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B173" s="20"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="20" t="s">
+        <v>954</v>
+      </c>
+      <c r="I173" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="J173" s="20"/>
+      <c r="K173" s="19"/>
+      <c r="L173" s="20"/>
+      <c r="M173" s="19"/>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B174" s="20"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="I174" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="J174" s="20"/>
+      <c r="K174" s="19"/>
+      <c r="L174" s="20"/>
+      <c r="M174" s="19"/>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B175" s="20"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="20" t="s">
+        <v>955</v>
+      </c>
+      <c r="I175" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="J175" s="20"/>
+      <c r="K175" s="19"/>
+      <c r="L175" s="20"/>
+      <c r="M175" s="19"/>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B176" s="20"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="20" t="s">
+        <v>956</v>
+      </c>
+      <c r="I176" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="J176" s="20"/>
+      <c r="K176" s="19"/>
+      <c r="L176" s="20"/>
+      <c r="M176" s="19"/>
+    </row>
+    <row r="177" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B177" s="20"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="20" t="s">
+        <v>957</v>
+      </c>
+      <c r="I177" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="J177" s="20"/>
+      <c r="K177" s="19"/>
+      <c r="L177" s="20"/>
+      <c r="M177" s="19"/>
+    </row>
+    <row r="178" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B178" s="20"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="20" t="s">
+        <v>958</v>
+      </c>
+      <c r="I178" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="J178" s="20"/>
+      <c r="K178" s="19"/>
+      <c r="L178" s="20"/>
+      <c r="M178" s="19"/>
+    </row>
+    <row r="179" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B179" s="20"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="20" t="s">
+        <v>959</v>
+      </c>
+      <c r="I179" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="J179" s="20"/>
+      <c r="K179" s="19"/>
+      <c r="L179" s="20"/>
+      <c r="M179" s="19"/>
+    </row>
+    <row r="180" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B180" s="20"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="20" t="s">
+        <v>960</v>
+      </c>
+      <c r="I180" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="J180" s="20"/>
+      <c r="K180" s="19"/>
+      <c r="L180" s="20"/>
+      <c r="M180" s="19"/>
+    </row>
+    <row r="181" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B181" s="20"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="I181" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="J181" s="20"/>
+      <c r="K181" s="19"/>
+      <c r="L181" s="20"/>
+      <c r="M181" s="19"/>
+    </row>
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B182" s="20"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="20" t="s">
+        <v>962</v>
+      </c>
+      <c r="I182" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="J182" s="20"/>
+      <c r="K182" s="19"/>
+      <c r="L182" s="20"/>
+      <c r="M182" s="19"/>
+    </row>
+    <row r="183" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B183" s="20"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="I183" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="J183" s="20"/>
+      <c r="K183" s="19"/>
+      <c r="L183" s="20"/>
+      <c r="M183" s="19"/>
+    </row>
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B184" s="20"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I184" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="J184" s="20"/>
+      <c r="K184" s="19"/>
+      <c r="L184" s="20"/>
+      <c r="M184" s="19"/>
+    </row>
+    <row r="185" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B185" s="20"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="20" t="s">
+        <v>964</v>
+      </c>
+      <c r="I185" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="J185" s="20"/>
+      <c r="K185" s="19"/>
+      <c r="L185" s="20"/>
+      <c r="M185" s="19"/>
+    </row>
+    <row r="186" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B186" s="20"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="20" t="s">
+        <v>965</v>
+      </c>
+      <c r="I186" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="J186" s="20"/>
+      <c r="K186" s="19"/>
+      <c r="L186" s="20"/>
+      <c r="M186" s="19"/>
+    </row>
+    <row r="187" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B187" s="20"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="I187" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="J187" s="20"/>
+      <c r="K187" s="19"/>
+      <c r="L187" s="20"/>
+      <c r="M187" s="19"/>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B188" s="20"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="20" t="s">
+        <v>967</v>
+      </c>
+      <c r="I188" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="J188" s="20"/>
+      <c r="K188" s="19"/>
+      <c r="L188" s="20"/>
+      <c r="M188" s="19"/>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B189" s="20"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="20" t="s">
+        <v>968</v>
+      </c>
+      <c r="I189" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="J189" s="20"/>
+      <c r="K189" s="19"/>
+      <c r="L189" s="20"/>
+      <c r="M189" s="19"/>
+    </row>
+    <row r="190" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B190" s="20"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="20" t="s">
+        <v>969</v>
+      </c>
+      <c r="I190" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="J190" s="20"/>
+      <c r="K190" s="19"/>
+      <c r="L190" s="20"/>
+      <c r="M190" s="19"/>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="20" t="s">
+        <v>970</v>
+      </c>
+      <c r="I191" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="J191" s="19"/>
+      <c r="K191" s="19"/>
+      <c r="L191" s="19"/>
+      <c r="M191" s="19"/>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="20" t="s">
+        <v>971</v>
+      </c>
+      <c r="I192" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="J192" s="19"/>
+      <c r="K192" s="19"/>
+      <c r="L192" s="19"/>
+      <c r="M192" s="19"/>
+    </row>
+    <row r="193" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B193" s="20"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="20" t="s">
+        <v>972</v>
+      </c>
+      <c r="I193" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="J193" s="20"/>
+      <c r="K193" s="19"/>
+      <c r="L193" s="20"/>
+      <c r="M193" s="19"/>
+    </row>
+    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="19"/>
+      <c r="K194" s="19"/>
+      <c r="L194" s="19"/>
+      <c r="M194" s="19"/>
+    </row>
+    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B195" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C195" s="19" t="s">
         <v>712</v>
       </c>
-      <c r="D87" s="23"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="23"/>
-      <c r="M87" s="22"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="23" t="s">
+      <c r="D195" s="20"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="20" t="s">
+        <v>973</v>
+      </c>
+      <c r="I195" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="J195" s="20"/>
+      <c r="K195" s="19"/>
+      <c r="L195" s="20"/>
+      <c r="M195" s="19"/>
+    </row>
+    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B196" s="20"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="19"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="20" t="s">
+        <v>974</v>
+      </c>
+      <c r="I196" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="J196" s="20"/>
+      <c r="K196" s="19"/>
+      <c r="L196" s="20"/>
+      <c r="M196" s="19"/>
+    </row>
+    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B197" s="20"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="19"/>
+      <c r="H197" s="20" t="s">
+        <v>975</v>
+      </c>
+      <c r="I197" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="J197" s="20"/>
+      <c r="K197" s="19"/>
+      <c r="L197" s="20"/>
+      <c r="M197" s="19"/>
+    </row>
+    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B198" s="20"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="19"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="19"/>
+      <c r="H198" s="20" t="s">
+        <v>976</v>
+      </c>
+      <c r="I198" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="J198" s="20"/>
+      <c r="K198" s="19"/>
+      <c r="L198" s="20"/>
+      <c r="M198" s="19"/>
+    </row>
+    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B199" s="20"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="I199" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="J199" s="20"/>
+      <c r="K199" s="19"/>
+      <c r="L199" s="20"/>
+      <c r="M199" s="19"/>
+    </row>
+    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B200" s="20"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="I200" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="J200" s="20"/>
+      <c r="K200" s="19"/>
+      <c r="L200" s="20"/>
+      <c r="M200" s="19"/>
+    </row>
+    <row r="201" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B201" s="20"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="19"/>
+      <c r="H201" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="I201" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="J201" s="20"/>
+      <c r="K201" s="19"/>
+      <c r="L201" s="20"/>
+      <c r="M201" s="19"/>
+    </row>
+    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B202" s="20"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="20"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="19"/>
+      <c r="H202" s="20" t="s">
+        <v>980</v>
+      </c>
+      <c r="I202" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="J202" s="20"/>
+      <c r="K202" s="19"/>
+      <c r="L202" s="20"/>
+      <c r="M202" s="19"/>
+    </row>
+    <row r="203" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B203" s="20"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="20" t="s">
+        <v>981</v>
+      </c>
+      <c r="I203" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="J203" s="20"/>
+      <c r="K203" s="19"/>
+      <c r="L203" s="20"/>
+      <c r="M203" s="19"/>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B204" s="20"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="20"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="19"/>
+      <c r="H204" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="I204" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="J204" s="20"/>
+      <c r="K204" s="19"/>
+      <c r="L204" s="20"/>
+      <c r="M204" s="19"/>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B205" s="20"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="20" t="s">
+        <v>983</v>
+      </c>
+      <c r="I205" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="J205" s="20"/>
+      <c r="K205" s="19"/>
+      <c r="L205" s="20"/>
+      <c r="M205" s="19"/>
+    </row>
+    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B206" s="20"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="19"/>
+      <c r="H206" s="20" t="s">
+        <v>984</v>
+      </c>
+      <c r="I206" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="J206" s="20"/>
+      <c r="K206" s="19"/>
+      <c r="L206" s="20"/>
+      <c r="M206" s="19"/>
+    </row>
+    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B207" s="20"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="19"/>
+      <c r="H207" s="20" t="s">
+        <v>985</v>
+      </c>
+      <c r="I207" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="J207" s="20"/>
+      <c r="K207" s="19"/>
+      <c r="L207" s="20"/>
+      <c r="M207" s="19"/>
+    </row>
+    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B208" s="20"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="20"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="20" t="s">
+        <v>986</v>
+      </c>
+      <c r="I208" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="J208" s="20"/>
+      <c r="K208" s="19"/>
+      <c r="L208" s="20"/>
+      <c r="M208" s="19"/>
+    </row>
+    <row r="209" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B209" s="20"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="20" t="s">
+        <v>987</v>
+      </c>
+      <c r="I209" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="J209" s="20"/>
+      <c r="K209" s="19"/>
+      <c r="L209" s="20"/>
+      <c r="M209" s="19"/>
+    </row>
+    <row r="210" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B210" s="20"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="19"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="19"/>
+      <c r="H210" s="20" t="s">
+        <v>988</v>
+      </c>
+      <c r="I210" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="J210" s="20"/>
+      <c r="K210" s="19"/>
+      <c r="L210" s="20"/>
+      <c r="M210" s="19"/>
+    </row>
+    <row r="211" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B211" s="20"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="19"/>
+      <c r="H211" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="I211" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="J211" s="20"/>
+      <c r="K211" s="19"/>
+      <c r="L211" s="20"/>
+      <c r="M211" s="19"/>
+    </row>
+    <row r="212" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B212" s="20"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="20" t="s">
+        <v>990</v>
+      </c>
+      <c r="I212" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="J212" s="20"/>
+      <c r="K212" s="19"/>
+      <c r="L212" s="20"/>
+      <c r="M212" s="19"/>
+    </row>
+    <row r="213" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B213" s="20"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="19"/>
+      <c r="H213" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="I213" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="J213" s="20"/>
+      <c r="K213" s="19"/>
+      <c r="L213" s="20"/>
+      <c r="M213" s="19"/>
+    </row>
+    <row r="214" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B214" s="20"/>
+      <c r="C214" s="19"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="I214" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="J214" s="20"/>
+      <c r="K214" s="19"/>
+      <c r="L214" s="20"/>
+      <c r="M214" s="19"/>
+    </row>
+    <row r="215" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B215" s="20"/>
+      <c r="C215" s="19"/>
+      <c r="D215" s="20"/>
+      <c r="E215" s="19"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="19"/>
+      <c r="H215" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="I215" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="J215" s="20"/>
+      <c r="K215" s="19"/>
+      <c r="L215" s="20"/>
+      <c r="M215" s="19"/>
+    </row>
+    <row r="216" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B216" s="20"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="20"/>
+      <c r="E216" s="19"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="19"/>
+      <c r="H216" s="20" t="s">
+        <v>994</v>
+      </c>
+      <c r="I216" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="J216" s="20"/>
+      <c r="K216" s="19"/>
+      <c r="L216" s="20"/>
+      <c r="M216" s="19"/>
+    </row>
+    <row r="217" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B217" s="20"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="19"/>
+      <c r="H217" s="20" t="s">
+        <v>995</v>
+      </c>
+      <c r="I217" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="J217" s="20"/>
+      <c r="K217" s="19"/>
+      <c r="L217" s="20"/>
+      <c r="M217" s="19"/>
+    </row>
+    <row r="218" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B218" s="20"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="19"/>
+      <c r="H218" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="I218" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="J218" s="20"/>
+      <c r="K218" s="19"/>
+      <c r="L218" s="20"/>
+      <c r="M218" s="19"/>
+    </row>
+    <row r="219" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B219" s="20"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="19"/>
+      <c r="H219" s="20" t="s">
+        <v>997</v>
+      </c>
+      <c r="I219" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="J219" s="20"/>
+      <c r="K219" s="19"/>
+      <c r="L219" s="20"/>
+      <c r="M219" s="19"/>
+    </row>
+    <row r="220" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B220" s="20"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="20"/>
+      <c r="E220" s="19"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="19"/>
+      <c r="H220" s="20" t="s">
+        <v>998</v>
+      </c>
+      <c r="I220" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="J220" s="20"/>
+      <c r="K220" s="19"/>
+      <c r="L220" s="20"/>
+      <c r="M220" s="19"/>
+    </row>
+    <row r="221" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B221" s="20"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="19"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="19"/>
+      <c r="H221" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="I221" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="J221" s="20"/>
+      <c r="K221" s="19"/>
+      <c r="L221" s="20"/>
+      <c r="M221" s="19"/>
+    </row>
+    <row r="222" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B222" s="20"/>
+      <c r="C222" s="19"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="19"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="19"/>
+      <c r="H222" s="20" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I222" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="J222" s="20"/>
+      <c r="K222" s="19"/>
+      <c r="L222" s="20"/>
+      <c r="M222" s="19"/>
+    </row>
+    <row r="223" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B223" s="20"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="20"/>
+      <c r="E223" s="19"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="19"/>
+      <c r="H223" s="20" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I223" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="J223" s="20"/>
+      <c r="K223" s="19"/>
+      <c r="L223" s="20"/>
+      <c r="M223" s="19"/>
+    </row>
+    <row r="224" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B224" s="20"/>
+      <c r="C224" s="19"/>
+      <c r="D224" s="20"/>
+      <c r="E224" s="19"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="19"/>
+      <c r="H224" s="20" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I224" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="J224" s="20"/>
+      <c r="K224" s="19"/>
+      <c r="L224" s="20"/>
+      <c r="M224" s="19"/>
+    </row>
+    <row r="225" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B225" s="20"/>
+      <c r="C225" s="19"/>
+      <c r="D225" s="20"/>
+      <c r="E225" s="19"/>
+      <c r="F225" s="20"/>
+      <c r="G225" s="19"/>
+      <c r="H225" s="20" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I225" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="J225" s="20"/>
+      <c r="K225" s="19"/>
+      <c r="L225" s="20"/>
+      <c r="M225" s="19"/>
+    </row>
+    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B226" s="20"/>
+      <c r="C226" s="19"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="19"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="19"/>
+      <c r="H226" s="20" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I226" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="J226" s="20"/>
+      <c r="K226" s="19"/>
+      <c r="L226" s="20"/>
+      <c r="M226" s="19"/>
+    </row>
+    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B227" s="20"/>
+      <c r="C227" s="19"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="19"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="19"/>
+      <c r="H227" s="20" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I227" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="J227" s="20"/>
+      <c r="K227" s="19"/>
+      <c r="L227" s="20"/>
+      <c r="M227" s="19"/>
+    </row>
+    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B228" s="20"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="19"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="19"/>
+      <c r="H228" s="20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I228" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="J228" s="20"/>
+      <c r="K228" s="19"/>
+      <c r="L228" s="20"/>
+      <c r="M228" s="19"/>
+    </row>
+    <row r="229" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B229" s="20"/>
+      <c r="C229" s="19"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="19"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="19"/>
+      <c r="H229" s="20" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I229" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="J229" s="20"/>
+      <c r="K229" s="19"/>
+      <c r="L229" s="20"/>
+      <c r="M229" s="19"/>
+    </row>
+    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B230" s="20"/>
+      <c r="C230" s="19"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="19"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="19"/>
+      <c r="H230" s="20" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I230" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="J230" s="20"/>
+      <c r="K230" s="19"/>
+      <c r="L230" s="20"/>
+      <c r="M230" s="19"/>
+    </row>
+    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B231" s="20"/>
+      <c r="C231" s="19"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="19"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="19"/>
+      <c r="H231" s="20" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I231" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="J231" s="20"/>
+      <c r="K231" s="19"/>
+      <c r="L231" s="20"/>
+      <c r="M231" s="19"/>
+    </row>
+    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B232" s="20"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="19"/>
+      <c r="H232" s="20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I232" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="J232" s="20"/>
+      <c r="K232" s="19"/>
+      <c r="L232" s="20"/>
+      <c r="M232" s="19"/>
+    </row>
+    <row r="233" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B233" s="20"/>
+      <c r="C233" s="19"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="19"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="19"/>
+      <c r="H233" s="20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I233" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="J233" s="20"/>
+      <c r="K233" s="19"/>
+      <c r="L233" s="20"/>
+      <c r="M233" s="19"/>
+    </row>
+    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B234" s="20"/>
+      <c r="C234" s="19"/>
+      <c r="D234" s="20"/>
+      <c r="E234" s="19"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="19"/>
+      <c r="H234" s="20" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I234" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="J234" s="20"/>
+      <c r="K234" s="19"/>
+      <c r="L234" s="20"/>
+      <c r="M234" s="19"/>
+    </row>
+    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B235" s="20"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="20"/>
+      <c r="E235" s="19"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="19"/>
+      <c r="H235" s="20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I235" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="J235" s="20"/>
+      <c r="K235" s="19"/>
+      <c r="L235" s="20"/>
+      <c r="M235" s="19"/>
+    </row>
+    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B236" s="20"/>
+      <c r="C236" s="19"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="19"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="19"/>
+      <c r="H236" s="20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I236" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="J236" s="20"/>
+      <c r="K236" s="19"/>
+      <c r="L236" s="20"/>
+      <c r="M236" s="19"/>
+    </row>
+    <row r="237" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B237" s="20"/>
+      <c r="C237" s="19"/>
+      <c r="D237" s="20"/>
+      <c r="E237" s="19"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="19"/>
+      <c r="H237" s="20" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I237" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="J237" s="20"/>
+      <c r="K237" s="19"/>
+      <c r="L237" s="20"/>
+      <c r="M237" s="19"/>
+    </row>
+    <row r="238" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B238" s="20"/>
+      <c r="C238" s="19"/>
+      <c r="D238" s="20"/>
+      <c r="E238" s="19"/>
+      <c r="F238" s="20"/>
+      <c r="G238" s="19"/>
+      <c r="H238" s="20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I238" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="J238" s="20"/>
+      <c r="K238" s="19"/>
+      <c r="L238" s="20"/>
+      <c r="M238" s="19"/>
+    </row>
+    <row r="239" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B239" s="20"/>
+      <c r="C239" s="19"/>
+      <c r="D239" s="20"/>
+      <c r="E239" s="19"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="19"/>
+      <c r="H239" s="20" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I239" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="J239" s="20"/>
+      <c r="K239" s="19"/>
+      <c r="L239" s="20"/>
+      <c r="M239" s="19"/>
+    </row>
+    <row r="240" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B240" s="20"/>
+      <c r="C240" s="19"/>
+      <c r="D240" s="20"/>
+      <c r="E240" s="19"/>
+      <c r="F240" s="20"/>
+      <c r="G240" s="19"/>
+      <c r="H240" s="20" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I240" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="J240" s="20"/>
+      <c r="K240" s="19"/>
+      <c r="L240" s="20"/>
+      <c r="M240" s="19"/>
+    </row>
+    <row r="241" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B241" s="20"/>
+      <c r="C241" s="19"/>
+      <c r="D241" s="20"/>
+      <c r="E241" s="19"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="19"/>
+      <c r="H241" s="20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I241" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="J241" s="20"/>
+      <c r="K241" s="19"/>
+      <c r="L241" s="20"/>
+      <c r="M241" s="19"/>
+    </row>
+    <row r="242" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B242" s="20"/>
+      <c r="C242" s="19"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="19"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="19"/>
+      <c r="H242" s="20" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I242" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="J242" s="20"/>
+      <c r="K242" s="19"/>
+      <c r="L242" s="20"/>
+      <c r="M242" s="19"/>
+    </row>
+    <row r="243" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B243" s="20"/>
+      <c r="C243" s="19"/>
+      <c r="D243" s="20"/>
+      <c r="E243" s="19"/>
+      <c r="F243" s="20"/>
+      <c r="G243" s="19"/>
+      <c r="H243" s="20" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I243" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="J243" s="20"/>
+      <c r="K243" s="19"/>
+      <c r="L243" s="20"/>
+      <c r="M243" s="19"/>
+    </row>
+    <row r="244" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B244" s="20"/>
+      <c r="C244" s="19"/>
+      <c r="D244" s="20"/>
+      <c r="E244" s="19"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="19"/>
+      <c r="H244" s="20" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I244" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="J244" s="20"/>
+      <c r="K244" s="19"/>
+      <c r="L244" s="20"/>
+      <c r="M244" s="19"/>
+    </row>
+    <row r="245" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B245" s="20"/>
+      <c r="C245" s="19"/>
+      <c r="D245" s="20"/>
+      <c r="E245" s="19"/>
+      <c r="F245" s="20"/>
+      <c r="G245" s="19"/>
+      <c r="H245" s="20" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I245" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="J245" s="20"/>
+      <c r="K245" s="19"/>
+      <c r="L245" s="20"/>
+      <c r="M245" s="19"/>
+    </row>
+    <row r="246" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B246" s="20"/>
+      <c r="C246" s="19"/>
+      <c r="D246" s="20"/>
+      <c r="E246" s="19"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="19"/>
+      <c r="H246" s="20" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I246" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="J246" s="20"/>
+      <c r="K246" s="19"/>
+      <c r="L246" s="20"/>
+      <c r="M246" s="19"/>
+    </row>
+    <row r="247" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B247" s="20"/>
+      <c r="C247" s="19"/>
+      <c r="D247" s="20"/>
+      <c r="E247" s="19"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="19"/>
+      <c r="H247" s="20" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I247" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="J247" s="20"/>
+      <c r="K247" s="19"/>
+      <c r="L247" s="20"/>
+      <c r="M247" s="19"/>
+    </row>
+    <row r="248" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B248" s="20"/>
+      <c r="C248" s="19"/>
+      <c r="D248" s="20"/>
+      <c r="E248" s="19"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="19"/>
+      <c r="H248" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I248" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="J248" s="20"/>
+      <c r="K248" s="19"/>
+      <c r="L248" s="20"/>
+      <c r="M248" s="19"/>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B249" s="20"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="19"/>
+      <c r="H249" s="20" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I249" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="J249" s="20"/>
+      <c r="K249" s="19"/>
+      <c r="L249" s="20"/>
+      <c r="M249" s="19"/>
+    </row>
+    <row r="250" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B250" s="20"/>
+      <c r="C250" s="19"/>
+      <c r="D250" s="20"/>
+      <c r="E250" s="19"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="19"/>
+      <c r="H250" s="20" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I250" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="J250" s="20"/>
+      <c r="K250" s="19"/>
+      <c r="L250" s="20"/>
+      <c r="M250" s="19"/>
+    </row>
+    <row r="251" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B251" s="20"/>
+      <c r="C251" s="19"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="19"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="19"/>
+      <c r="H251" s="20" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I251" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="J251" s="20"/>
+      <c r="K251" s="19"/>
+      <c r="L251" s="20"/>
+      <c r="M251" s="19"/>
+    </row>
+    <row r="252" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B252" s="20"/>
+      <c r="C252" s="19"/>
+      <c r="D252" s="20"/>
+      <c r="E252" s="19"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="19"/>
+      <c r="H252" s="20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I252" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="J252" s="20"/>
+      <c r="K252" s="19"/>
+      <c r="L252" s="20"/>
+      <c r="M252" s="19"/>
+    </row>
+    <row r="253" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B253" s="20"/>
+      <c r="C253" s="19"/>
+      <c r="D253" s="20"/>
+      <c r="E253" s="19"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="19"/>
+      <c r="H253" s="20" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I253" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="J253" s="20"/>
+      <c r="K253" s="19"/>
+      <c r="L253" s="20"/>
+      <c r="M253" s="19"/>
+    </row>
+    <row r="254" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B254" s="20"/>
+      <c r="C254" s="19"/>
+      <c r="D254" s="20"/>
+      <c r="E254" s="19"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="19"/>
+      <c r="H254" s="20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I254" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="J254" s="20"/>
+      <c r="K254" s="19"/>
+      <c r="L254" s="20"/>
+      <c r="M254" s="19"/>
+    </row>
+    <row r="255" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B255" s="20"/>
+      <c r="C255" s="19"/>
+      <c r="D255" s="20"/>
+      <c r="E255" s="19"/>
+      <c r="F255" s="20"/>
+      <c r="G255" s="19"/>
+      <c r="H255" s="20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I255" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="J255" s="20"/>
+      <c r="K255" s="19"/>
+      <c r="L255" s="20"/>
+      <c r="M255" s="19"/>
+    </row>
+    <row r="256" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B256" s="20"/>
+      <c r="C256" s="19"/>
+      <c r="D256" s="20"/>
+      <c r="E256" s="19"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="19"/>
+      <c r="H256" s="20" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I256" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="J256" s="20"/>
+      <c r="K256" s="19"/>
+      <c r="L256" s="20"/>
+      <c r="M256" s="19"/>
+    </row>
+    <row r="257" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B257" s="20"/>
+      <c r="C257" s="19"/>
+      <c r="D257" s="20"/>
+      <c r="E257" s="19"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="19"/>
+      <c r="H257" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I257" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="J257" s="20"/>
+      <c r="K257" s="19"/>
+      <c r="L257" s="20"/>
+      <c r="M257" s="19"/>
+    </row>
+    <row r="258" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B258" s="20"/>
+      <c r="C258" s="19"/>
+      <c r="D258" s="20"/>
+      <c r="E258" s="19"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="19"/>
+      <c r="H258" s="20" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I258" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="J258" s="20"/>
+      <c r="K258" s="19"/>
+      <c r="L258" s="20"/>
+      <c r="M258" s="19"/>
+    </row>
+    <row r="259" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B259" s="20"/>
+      <c r="C259" s="19"/>
+      <c r="D259" s="20"/>
+      <c r="E259" s="19"/>
+      <c r="F259" s="20"/>
+      <c r="G259" s="19"/>
+      <c r="H259" s="20" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I259" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="J259" s="20"/>
+      <c r="K259" s="19"/>
+      <c r="L259" s="20"/>
+      <c r="M259" s="19"/>
+    </row>
+    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B260" s="20"/>
+      <c r="C260" s="19"/>
+      <c r="D260" s="20"/>
+      <c r="E260" s="19"/>
+      <c r="F260" s="20"/>
+      <c r="G260" s="19"/>
+      <c r="H260" s="20" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I260" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="J260" s="20"/>
+      <c r="K260" s="19"/>
+      <c r="L260" s="20"/>
+      <c r="M260" s="19"/>
+    </row>
+    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B261" s="20"/>
+      <c r="C261" s="19"/>
+      <c r="D261" s="20"/>
+      <c r="E261" s="19"/>
+      <c r="F261" s="20"/>
+      <c r="G261" s="19"/>
+      <c r="H261" s="20" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I261" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="J261" s="20"/>
+      <c r="K261" s="19"/>
+      <c r="L261" s="20"/>
+      <c r="M261" s="19"/>
+    </row>
+    <row r="262" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B262" s="20"/>
+      <c r="C262" s="19"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="19"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="19"/>
+      <c r="H262" s="20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I262" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="J262" s="20"/>
+      <c r="K262" s="19"/>
+      <c r="L262" s="20"/>
+      <c r="M262" s="19"/>
+    </row>
+    <row r="263" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B263" s="20"/>
+      <c r="C263" s="19"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="19"/>
+      <c r="F263" s="20"/>
+      <c r="G263" s="19"/>
+      <c r="H263" s="20"/>
+      <c r="I263" s="19"/>
+      <c r="J263" s="20"/>
+      <c r="K263" s="19"/>
+      <c r="L263" s="20"/>
+      <c r="M263" s="19"/>
+    </row>
+    <row r="264" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B264" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C264" s="19" t="s">
         <v>713</v>
       </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="23"/>
-      <c r="M90" s="22"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="22" t="s">
+      <c r="D264" s="20"/>
+      <c r="E264" s="19"/>
+      <c r="F264" s="20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G264" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="H264" s="20"/>
+      <c r="I264" s="19"/>
+      <c r="J264" s="20"/>
+      <c r="K264" s="19"/>
+      <c r="L264" s="20"/>
+      <c r="M264" s="19"/>
+    </row>
+    <row r="265" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B265" s="20"/>
+      <c r="C265" s="19"/>
+      <c r="D265" s="20"/>
+      <c r="E265" s="19"/>
+      <c r="F265" s="20" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G265" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="H265" s="20"/>
+      <c r="I265" s="19"/>
+      <c r="J265" s="20"/>
+      <c r="K265" s="19"/>
+      <c r="L265" s="20"/>
+      <c r="M265" s="19"/>
+    </row>
+    <row r="266" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B266" s="20"/>
+      <c r="C266" s="19"/>
+      <c r="D266" s="20"/>
+      <c r="E266" s="19"/>
+      <c r="F266" s="20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G266" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="H266" s="20"/>
+      <c r="I266" s="19"/>
+      <c r="J266" s="20"/>
+      <c r="K266" s="19"/>
+      <c r="L266" s="20"/>
+      <c r="M266" s="19"/>
+    </row>
+    <row r="267" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B267" s="20"/>
+      <c r="C267" s="19"/>
+      <c r="D267" s="20"/>
+      <c r="E267" s="19"/>
+      <c r="F267" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G267" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="H267" s="20"/>
+      <c r="I267" s="19"/>
+      <c r="J267" s="20"/>
+      <c r="K267" s="19"/>
+      <c r="L267" s="20"/>
+      <c r="M267" s="19"/>
+    </row>
+    <row r="268" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B268" s="20"/>
+      <c r="C268" s="19"/>
+      <c r="D268" s="20"/>
+      <c r="E268" s="19"/>
+      <c r="F268" s="20" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G268" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="H268" s="20"/>
+      <c r="I268" s="19"/>
+      <c r="J268" s="20"/>
+      <c r="K268" s="19"/>
+      <c r="L268" s="20"/>
+      <c r="M268" s="19"/>
+    </row>
+    <row r="269" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B269" s="20"/>
+      <c r="C269" s="19"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="19"/>
+      <c r="F269" s="20" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G269" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="H269" s="20"/>
+      <c r="I269" s="19"/>
+      <c r="J269" s="20"/>
+      <c r="K269" s="19"/>
+      <c r="L269" s="20"/>
+      <c r="M269" s="19"/>
+    </row>
+    <row r="270" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B270" s="20"/>
+      <c r="C270" s="19"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="19"/>
+      <c r="F270" s="20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G270" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="H270" s="20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I270" s="20" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J270" s="20"/>
+      <c r="K270" s="19"/>
+      <c r="M270" s="20"/>
+    </row>
+    <row r="271" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B271" s="20"/>
+      <c r="C271" s="19"/>
+      <c r="D271" s="20"/>
+      <c r="E271" s="19"/>
+      <c r="F271" s="20"/>
+      <c r="G271" s="19"/>
+      <c r="H271" s="20" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I271" s="20" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J271" s="20"/>
+      <c r="K271" s="19"/>
+      <c r="M271" s="20"/>
+    </row>
+    <row r="272" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B272" s="20"/>
+      <c r="C272" s="19"/>
+      <c r="D272" s="20"/>
+      <c r="E272" s="19"/>
+      <c r="F272" s="20"/>
+      <c r="G272" s="19"/>
+      <c r="H272" s="20" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I272" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="J272" s="20"/>
+      <c r="K272" s="19"/>
+      <c r="M272" s="20"/>
+    </row>
+    <row r="273" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B273" s="19"/>
+      <c r="C273" s="19"/>
+      <c r="D273" s="19"/>
+      <c r="E273" s="19"/>
+      <c r="F273" s="19"/>
+      <c r="G273" s="19"/>
+      <c r="H273" s="20" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I273" s="19" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J273" s="19"/>
+      <c r="K273" s="19"/>
+      <c r="L273" s="19"/>
+      <c r="M273" s="19"/>
+    </row>
+    <row r="274" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B274" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C274" s="19" t="s">
         <v>715</v>
       </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="22"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="22"/>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="22"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="22"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="22"/>
-      <c r="K95" s="22"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="22"/>
+      <c r="D274" s="19"/>
+      <c r="E274" s="19"/>
+      <c r="F274" s="20" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G274" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="H274" s="20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I274" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="J274" s="19"/>
+      <c r="K274" s="19"/>
+      <c r="L274" s="19"/>
+      <c r="M274" s="19"/>
+    </row>
+    <row r="275" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B275" s="19"/>
+      <c r="C275" s="19"/>
+      <c r="D275" s="19"/>
+      <c r="E275" s="19"/>
+      <c r="F275" s="20"/>
+      <c r="G275" s="19"/>
+      <c r="H275" s="20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I275" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="J275" s="19"/>
+      <c r="K275" s="19"/>
+      <c r="L275" s="19"/>
+      <c r="M275" s="19"/>
+    </row>
+    <row r="276" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B276" s="19"/>
+      <c r="C276" s="19"/>
+      <c r="D276" s="19"/>
+      <c r="E276" s="19"/>
+      <c r="F276" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G276" s="19" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H276" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I276" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="J276" s="19"/>
+      <c r="K276" s="19"/>
+      <c r="L276" s="19"/>
+      <c r="M276" s="19"/>
+    </row>
+    <row r="277" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B277" s="19"/>
+      <c r="C277" s="19"/>
+      <c r="D277" s="19"/>
+      <c r="E277" s="19"/>
+      <c r="F277" s="19"/>
+      <c r="G277" s="19"/>
+      <c r="H277" s="20" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I277" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="J277" s="19"/>
+      <c r="K277" s="19"/>
+      <c r="L277" s="19"/>
+      <c r="M277" s="19"/>
+    </row>
+    <row r="278" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B278" s="19"/>
+      <c r="C278" s="19"/>
+      <c r="D278" s="19"/>
+      <c r="E278" s="19"/>
+      <c r="F278" s="20" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G278" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="H278" s="20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I278" s="19" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J278" s="19"/>
+      <c r="K278" s="19"/>
+      <c r="L278" s="19"/>
+      <c r="M278" s="19"/>
+    </row>
+    <row r="279" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B279" s="19"/>
+      <c r="C279" s="19"/>
+      <c r="D279" s="19"/>
+      <c r="E279" s="19"/>
+      <c r="F279" s="19"/>
+      <c r="G279" s="19"/>
+      <c r="H279" s="19"/>
+      <c r="I279" s="19"/>
+      <c r="J279" s="19"/>
+      <c r="K279" s="19"/>
+      <c r="L279" s="19"/>
+      <c r="M279" s="19"/>
+    </row>
+    <row r="280" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B280" s="19"/>
+      <c r="C280" s="19"/>
+      <c r="D280" s="19"/>
+      <c r="E280" s="19"/>
+      <c r="F280" s="19"/>
+      <c r="G280" s="19"/>
+      <c r="H280" s="19"/>
+      <c r="I280" s="19"/>
+      <c r="J280" s="19"/>
+      <c r="K280" s="19"/>
+      <c r="L280" s="19"/>
+      <c r="M280" s="19"/>
+    </row>
+    <row r="281" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B281" s="19"/>
+      <c r="C281" s="19"/>
+      <c r="D281" s="19"/>
+      <c r="E281" s="19"/>
+      <c r="F281" s="19"/>
+      <c r="G281" s="19"/>
+      <c r="H281" s="19"/>
+      <c r="I281" s="19"/>
+      <c r="J281" s="19"/>
+      <c r="K281" s="19"/>
+      <c r="L281" s="19"/>
+      <c r="M281" s="19"/>
+    </row>
+    <row r="282" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B282" s="19"/>
+      <c r="C282" s="19"/>
+      <c r="D282" s="19"/>
+      <c r="E282" s="19"/>
+      <c r="F282" s="19"/>
+      <c r="G282" s="19"/>
+      <c r="H282" s="19"/>
+      <c r="I282" s="19"/>
+      <c r="J282" s="19"/>
+      <c r="K282" s="19"/>
+      <c r="L282" s="19"/>
+      <c r="M282" s="19"/>
+    </row>
+    <row r="283" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B283" s="19"/>
+      <c r="C283" s="19"/>
+      <c r="D283" s="19"/>
+      <c r="E283" s="19"/>
+      <c r="F283" s="19"/>
+      <c r="G283" s="19"/>
+      <c r="H283" s="19"/>
+      <c r="I283" s="19"/>
+      <c r="J283" s="19"/>
+      <c r="K283" s="19"/>
+      <c r="L283" s="19"/>
+      <c r="M283" s="19"/>
+    </row>
+    <row r="284" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B284" s="19"/>
+      <c r="C284" s="19"/>
+      <c r="D284" s="19"/>
+      <c r="E284" s="19"/>
+      <c r="F284" s="19"/>
+      <c r="G284" s="19"/>
+      <c r="H284" s="19"/>
+      <c r="I284" s="19"/>
+      <c r="J284" s="19"/>
+      <c r="K284" s="19"/>
+      <c r="L284" s="19"/>
+      <c r="M284" s="19"/>
+    </row>
+    <row r="285" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B285" s="19"/>
+      <c r="C285" s="19"/>
+      <c r="D285" s="19"/>
+      <c r="E285" s="19"/>
+      <c r="F285" s="19"/>
+      <c r="G285" s="19"/>
+      <c r="H285" s="19"/>
+      <c r="I285" s="19"/>
+      <c r="J285" s="19"/>
+      <c r="K285" s="19"/>
+      <c r="L285" s="19"/>
+      <c r="M285" s="19"/>
+    </row>
+    <row r="286" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B286" s="19"/>
+      <c r="C286" s="19"/>
+      <c r="D286" s="19"/>
+      <c r="E286" s="19"/>
+      <c r="F286" s="19"/>
+      <c r="G286" s="19"/>
+      <c r="H286" s="19"/>
+      <c r="I286" s="19"/>
+      <c r="J286" s="19"/>
+      <c r="K286" s="19"/>
+      <c r="L286" s="19"/>
+      <c r="M286" s="19"/>
+    </row>
+    <row r="287" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B287" s="19"/>
+      <c r="C287" s="19"/>
+      <c r="D287" s="19"/>
+      <c r="E287" s="19"/>
+      <c r="F287" s="19"/>
+      <c r="G287" s="19"/>
+      <c r="H287" s="19"/>
+      <c r="I287" s="19"/>
+      <c r="J287" s="19"/>
+      <c r="K287" s="19"/>
+      <c r="L287" s="19"/>
+      <c r="M287" s="19"/>
+    </row>
+    <row r="288" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B288" s="19"/>
+      <c r="C288" s="19"/>
+      <c r="D288" s="19"/>
+      <c r="E288" s="19"/>
+      <c r="F288" s="19"/>
+      <c r="G288" s="19"/>
+      <c r="H288" s="19"/>
+      <c r="I288" s="19"/>
+      <c r="J288" s="19"/>
+      <c r="K288" s="19"/>
+      <c r="L288" s="19"/>
+      <c r="M288" s="19"/>
+    </row>
+    <row r="289" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B289" s="19"/>
+      <c r="C289" s="19"/>
+      <c r="D289" s="19"/>
+      <c r="E289" s="19"/>
+      <c r="F289" s="19"/>
+      <c r="G289" s="19"/>
+      <c r="H289" s="19"/>
+      <c r="I289" s="19"/>
+      <c r="J289" s="19"/>
+      <c r="K289" s="19"/>
+      <c r="L289" s="19"/>
+      <c r="M289" s="19"/>
+    </row>
+    <row r="290" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B290" s="19"/>
+      <c r="C290" s="19"/>
+      <c r="D290" s="19"/>
+      <c r="E290" s="19"/>
+      <c r="F290" s="19"/>
+      <c r="G290" s="19"/>
+      <c r="H290" s="19"/>
+      <c r="I290" s="19"/>
+      <c r="J290" s="19"/>
+      <c r="K290" s="19"/>
+      <c r="L290" s="19"/>
+      <c r="M290" s="19"/>
+    </row>
+    <row r="291" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B291" s="19"/>
+      <c r="C291" s="19"/>
+      <c r="D291" s="19"/>
+      <c r="E291" s="19"/>
+      <c r="F291" s="19"/>
+      <c r="G291" s="19"/>
+      <c r="H291" s="19"/>
+      <c r="I291" s="19"/>
+      <c r="J291" s="19"/>
+      <c r="K291" s="19"/>
+      <c r="L291" s="19"/>
+      <c r="M291" s="19"/>
+    </row>
+    <row r="292" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B292" s="19"/>
+      <c r="C292" s="19"/>
+      <c r="D292" s="19"/>
+      <c r="E292" s="19"/>
+      <c r="F292" s="19"/>
+      <c r="G292" s="19"/>
+      <c r="H292" s="19"/>
+      <c r="I292" s="19"/>
+      <c r="J292" s="19"/>
+      <c r="K292" s="19"/>
+      <c r="L292" s="19"/>
+      <c r="M292" s="19"/>
+    </row>
+    <row r="293" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B293" s="19"/>
+      <c r="C293" s="19"/>
+      <c r="D293" s="19"/>
+      <c r="E293" s="19"/>
+      <c r="F293" s="19"/>
+      <c r="G293" s="19"/>
+      <c r="H293" s="19"/>
+      <c r="I293" s="19"/>
+      <c r="J293" s="19"/>
+      <c r="K293" s="19"/>
+      <c r="L293" s="19"/>
+      <c r="M293" s="19"/>
+    </row>
+    <row r="294" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B294" s="19"/>
+      <c r="C294" s="19"/>
+      <c r="D294" s="19"/>
+      <c r="E294" s="19"/>
+      <c r="F294" s="19"/>
+      <c r="G294" s="19"/>
+      <c r="H294" s="19"/>
+      <c r="I294" s="19"/>
+      <c r="J294" s="19"/>
+      <c r="K294" s="19"/>
+      <c r="L294" s="19"/>
+      <c r="M294" s="19"/>
+    </row>
+    <row r="295" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B295" s="19"/>
+      <c r="C295" s="19"/>
+      <c r="D295" s="19"/>
+      <c r="E295" s="19"/>
+      <c r="F295" s="19"/>
+      <c r="G295" s="19"/>
+      <c r="H295" s="19"/>
+      <c r="I295" s="19"/>
+      <c r="J295" s="19"/>
+      <c r="K295" s="19"/>
+      <c r="L295" s="19"/>
+      <c r="M295" s="19"/>
+    </row>
+    <row r="296" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
+      <c r="D296" s="19"/>
+      <c r="E296" s="19"/>
+      <c r="F296" s="19"/>
+      <c r="G296" s="19"/>
+      <c r="H296" s="19"/>
+      <c r="I296" s="19"/>
+      <c r="J296" s="19"/>
+      <c r="K296" s="19"/>
+      <c r="L296" s="19"/>
+      <c r="M296" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/Accounting.TblChartOfAccount.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Accounting.TblChartOfAccount.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="9360" windowHeight="3330" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="9360" windowHeight="3330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Link" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="QDC COA" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1086">
   <si>
     <t>RAW COA STRUCTURE</t>
   </si>
@@ -3223,12 +3224,312 @@
   <si>
     <t>3-9000</t>
   </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1-2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1-3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1-4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1-5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2-2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2-3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3-2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3-3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3-9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3266,6 +3567,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
@@ -3310,7 +3618,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3357,12 +3665,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -3406,12 +3727,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3424,6 +3739,42 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3967,53 +4318,53 @@
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="F3" s="22" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="F3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="6"/>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="21" t="s">
+      <c r="AD3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
       <c r="AN3" s="6"/>
       <c r="AO3" s="8" t="s">
         <v>673</v>
@@ -20930,7 +21281,7 @@
       <c r="O171" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="Q171" s="26" t="str">
+      <c r="Q171" s="24" t="str">
         <f t="shared" si="64"/>
         <v>Opening Balance - Material</v>
       </c>
@@ -21032,7 +21383,7 @@
       <c r="O172" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="Q172" s="26" t="str">
+      <c r="Q172" s="24" t="str">
         <f t="shared" si="64"/>
         <v>Opening Balance - Supplies</v>
       </c>
@@ -21134,7 +21485,7 @@
       <c r="O173" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="Q173" s="26" t="str">
+      <c r="Q173" s="24" t="str">
         <f t="shared" si="64"/>
         <v>Purchase - Material</v>
       </c>
@@ -21236,7 +21587,7 @@
       <c r="O174" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="Q174" s="26" t="str">
+      <c r="Q174" s="24" t="str">
         <f t="shared" si="64"/>
         <v>Purchase - Supplies</v>
       </c>
@@ -21338,7 +21689,7 @@
       <c r="O175" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="Q175" s="26" t="str">
+      <c r="Q175" s="24" t="str">
         <f t="shared" si="64"/>
         <v>Ending Balance - Material</v>
       </c>
@@ -21440,7 +21791,7 @@
       <c r="O176" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="Q176" s="26" t="str">
+      <c r="Q176" s="24" t="str">
         <f t="shared" si="64"/>
         <v>Ending Balance - Supplies</v>
       </c>
@@ -21542,7 +21893,7 @@
       <c r="O177" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q177" s="26" t="str">
+      <c r="Q177" s="24" t="str">
         <f t="shared" si="64"/>
         <v>Material Used</v>
       </c>
@@ -21644,7 +21995,7 @@
       <c r="O178" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="Q178" s="26" t="str">
+      <c r="Q178" s="24" t="str">
         <f t="shared" si="64"/>
         <v>Supplies Used</v>
       </c>
@@ -21746,7 +22097,7 @@
       <c r="O179" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="Q179" s="26" t="str">
+      <c r="Q179" s="24" t="str">
         <f t="shared" si="64"/>
         <v>Material Other</v>
       </c>
@@ -21848,7 +22199,7 @@
       <c r="O180" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="Q180" s="26" t="str">
+      <c r="Q180" s="24" t="str">
         <f t="shared" si="64"/>
         <v>IT Hardware Purchase</v>
       </c>
@@ -22052,7 +22403,7 @@
       <c r="O182" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="Q182" s="27" t="str">
+      <c r="Q182" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Salary Daily Worker</v>
       </c>
@@ -22154,7 +22505,7 @@
       <c r="O183" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="Q183" s="27" t="str">
+      <c r="Q183" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Salary Direct</v>
       </c>
@@ -22256,7 +22607,7 @@
       <c r="O184" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="Q184" s="27" t="str">
+      <c r="Q184" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Salary Indirect</v>
       </c>
@@ -22358,7 +22709,7 @@
       <c r="O185" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="Q185" s="27" t="str">
+      <c r="Q185" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Overtime Direct</v>
       </c>
@@ -22460,7 +22811,7 @@
       <c r="O186" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="Q186" s="27" t="str">
+      <c r="Q186" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Overtime Indirect</v>
       </c>
@@ -22562,7 +22913,7 @@
       <c r="O187" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="Q187" s="27" t="str">
+      <c r="Q187" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Jamsostek Direct</v>
       </c>
@@ -22664,7 +23015,7 @@
       <c r="O188" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="Q188" s="27" t="str">
+      <c r="Q188" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Jamsostek Indirect</v>
       </c>
@@ -22766,7 +23117,7 @@
       <c r="O189" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="Q189" s="27" t="str">
+      <c r="Q189" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Bonus,THR-Direct</v>
       </c>
@@ -22868,7 +23219,7 @@
       <c r="O190" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="Q190" s="27" t="str">
+      <c r="Q190" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Performance Bonus-Direct</v>
       </c>
@@ -22970,7 +23321,7 @@
       <c r="O191" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="Q191" s="27" t="str">
+      <c r="Q191" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Bonus,THR-Indirect</v>
       </c>
@@ -23072,7 +23423,7 @@
       <c r="O192" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="Q192" s="27" t="str">
+      <c r="Q192" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Performance Bonus-Indirect</v>
       </c>
@@ -23174,7 +23525,7 @@
       <c r="O193" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="Q193" s="27" t="str">
+      <c r="Q193" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Personal Income Tax-Direct</v>
       </c>
@@ -23276,7 +23627,7 @@
       <c r="O194" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="Q194" s="27" t="str">
+      <c r="Q194" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Personal Income Tax-Indirect</v>
       </c>
@@ -23378,7 +23729,7 @@
       <c r="O195" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="Q195" s="27" t="str">
+      <c r="Q195" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Uniform,Protect Clothe-Direct</v>
       </c>
@@ -23480,7 +23831,7 @@
       <c r="O196" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="Q196" s="27" t="str">
+      <c r="Q196" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Uniform,Protect Cloth-Indirect</v>
       </c>
@@ -23582,7 +23933,7 @@
       <c r="O197" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="Q197" s="27" t="str">
+      <c r="Q197" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Business Trip Allowance</v>
       </c>
@@ -23684,7 +24035,7 @@
       <c r="O198" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="Q198" s="27" t="str">
+      <c r="Q198" s="25" t="str">
         <f t="shared" si="64"/>
         <v>Meal</v>
       </c>
@@ -23786,7 +24137,7 @@
       <c r="O199" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="Q199" s="27" t="str">
+      <c r="Q199" s="25" t="str">
         <f t="shared" ref="Q199:Q262" si="86">D199</f>
         <v>Severance Pay - Project</v>
       </c>
@@ -23888,7 +24239,7 @@
       <c r="O200" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="Q200" s="27" t="str">
+      <c r="Q200" s="25" t="str">
         <f t="shared" si="86"/>
         <v>Sub Contractor</v>
       </c>
@@ -24092,7 +24443,7 @@
       <c r="O202" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="Q202" s="28" t="str">
+      <c r="Q202" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Consumables</v>
       </c>
@@ -24194,7 +24545,7 @@
       <c r="O203" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="Q203" s="28" t="str">
+      <c r="Q203" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Spare Parts</v>
       </c>
@@ -24296,7 +24647,7 @@
       <c r="O204" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="Q204" s="28" t="str">
+      <c r="Q204" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Tools</v>
       </c>
@@ -24398,7 +24749,7 @@
       <c r="O205" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="Q205" s="28" t="str">
+      <c r="Q205" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Utilities</v>
       </c>
@@ -24500,7 +24851,7 @@
       <c r="O206" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="Q206" s="28" t="str">
+      <c r="Q206" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Stationery &amp; Printing</v>
       </c>
@@ -24602,7 +24953,7 @@
       <c r="O207" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="Q207" s="28" t="str">
+      <c r="Q207" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Postage &amp; Courier Service</v>
       </c>
@@ -24704,7 +25055,7 @@
       <c r="O208" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="Q208" s="28" t="str">
+      <c r="Q208" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Telephone Expenses</v>
       </c>
@@ -24806,7 +25157,7 @@
       <c r="O209" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="Q209" s="28" t="str">
+      <c r="Q209" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Mobile Phone</v>
       </c>
@@ -24908,7 +25259,7 @@
       <c r="O210" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="Q210" s="28" t="str">
+      <c r="Q210" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Insurance Expenses</v>
       </c>
@@ -25010,7 +25361,7 @@
       <c r="O211" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="Q211" s="28" t="str">
+      <c r="Q211" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Property Rental/Lease</v>
       </c>
@@ -25112,7 +25463,7 @@
       <c r="O212" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="Q212" s="28" t="str">
+      <c r="Q212" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Hire of Other Plant &amp; Equipt</v>
       </c>
@@ -25214,7 +25565,7 @@
       <c r="O213" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="Q213" s="28" t="str">
+      <c r="Q213" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Property Repair &amp; Maintenance</v>
       </c>
@@ -25316,7 +25667,7 @@
       <c r="O214" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="Q214" s="28" t="str">
+      <c r="Q214" s="26" t="str">
         <f t="shared" si="86"/>
         <v>IT Expenses</v>
       </c>
@@ -25418,7 +25769,7 @@
       <c r="O215" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="Q215" s="28" t="str">
+      <c r="Q215" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Hire of Motor Vehicle</v>
       </c>
@@ -25520,7 +25871,7 @@
       <c r="O216" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="Q216" s="28" t="str">
+      <c r="Q216" s="26" t="str">
         <f t="shared" si="86"/>
         <v>MV-Fuel &amp; Oil</v>
       </c>
@@ -25622,7 +25973,7 @@
       <c r="O217" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="Q217" s="28" t="str">
+      <c r="Q217" s="26" t="str">
         <f t="shared" si="86"/>
         <v>MV-Repair &amp; Maintenance</v>
       </c>
@@ -25724,7 +26075,7 @@
       <c r="O218" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="Q218" s="28" t="str">
+      <c r="Q218" s="26" t="str">
         <f t="shared" si="86"/>
         <v>MV-Tyres, Tubes</v>
       </c>
@@ -25826,7 +26177,7 @@
       <c r="O219" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="Q219" s="28" t="str">
+      <c r="Q219" s="26" t="str">
         <f t="shared" si="86"/>
         <v>MV-Spare Parts</v>
       </c>
@@ -25928,7 +26279,7 @@
       <c r="O220" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q220" s="28" t="str">
+      <c r="Q220" s="26" t="str">
         <f t="shared" si="86"/>
         <v>MV-Accessories</v>
       </c>
@@ -26030,7 +26381,7 @@
       <c r="O221" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="Q221" s="28" t="str">
+      <c r="Q221" s="26" t="str">
         <f t="shared" si="86"/>
         <v>MV Other</v>
       </c>
@@ -26132,7 +26483,7 @@
       <c r="O222" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="Q222" s="28" t="str">
+      <c r="Q222" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Local Transport</v>
       </c>
@@ -26234,7 +26585,7 @@
       <c r="O223" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="Q223" s="28" t="str">
+      <c r="Q223" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Business Travelling</v>
       </c>
@@ -26336,7 +26687,7 @@
       <c r="O224" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="Q224" s="28" t="str">
+      <c r="Q224" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Travel &amp; Fares</v>
       </c>
@@ -26438,7 +26789,7 @@
       <c r="O225" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="Q225" s="28" t="str">
+      <c r="Q225" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Freight Expenses</v>
       </c>
@@ -26540,7 +26891,7 @@
       <c r="O226" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="Q226" s="28" t="str">
+      <c r="Q226" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Custom Clearance</v>
       </c>
@@ -26642,7 +26993,7 @@
       <c r="O227" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="Q227" s="28" t="str">
+      <c r="Q227" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Infrastructure</v>
       </c>
@@ -26744,7 +27095,7 @@
       <c r="O228" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q228" s="28" t="str">
+      <c r="Q228" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Tender Cost</v>
       </c>
@@ -26846,7 +27197,7 @@
       <c r="O229" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="Q229" s="28" t="str">
+      <c r="Q229" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Sitac Expenses</v>
       </c>
@@ -26948,7 +27299,7 @@
       <c r="O230" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="Q230" s="28" t="str">
+      <c r="Q230" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Loss, Damage &amp; Pinalty</v>
       </c>
@@ -27050,7 +27401,7 @@
       <c r="O231" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="Q231" s="28" t="str">
+      <c r="Q231" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Supervision Expenses</v>
       </c>
@@ -27152,7 +27503,7 @@
       <c r="O232" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="Q232" s="28" t="str">
+      <c r="Q232" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Power Supply</v>
       </c>
@@ -27254,7 +27605,7 @@
       <c r="O233" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="Q233" s="28" t="str">
+      <c r="Q233" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Civil  Work</v>
       </c>
@@ -27356,7 +27707,7 @@
       <c r="O234" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="Q234" s="28" t="str">
+      <c r="Q234" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Moblilization &amp; demobilization</v>
       </c>
@@ -27458,7 +27809,7 @@
       <c r="O235" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="Q235" s="28" t="str">
+      <c r="Q235" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Entertainment-Deductable</v>
       </c>
@@ -27560,7 +27911,7 @@
       <c r="O236" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="Q236" s="28" t="str">
+      <c r="Q236" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Entertainment-Undeductable</v>
       </c>
@@ -27662,7 +28013,7 @@
       <c r="O237" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="Q237" s="28" t="str">
+      <c r="Q237" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Non Meal Entertaint-Ded.</v>
       </c>
@@ -27764,7 +28115,7 @@
       <c r="O238" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="Q238" s="28" t="str">
+      <c r="Q238" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Non Meal Entertaint-Unded.</v>
       </c>
@@ -27866,7 +28217,7 @@
       <c r="O239" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="Q239" s="28" t="str">
+      <c r="Q239" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Donation</v>
       </c>
@@ -27968,7 +28319,7 @@
       <c r="O240" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="Q240" s="28" t="str">
+      <c r="Q240" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Building Improvement</v>
       </c>
@@ -28070,7 +28421,7 @@
       <c r="O241" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="Q241" s="28" t="str">
+      <c r="Q241" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Depre - IT Equipment</v>
       </c>
@@ -28172,7 +28523,7 @@
       <c r="O242" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="Q242" s="28" t="str">
+      <c r="Q242" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Office Machine &amp; Equip</v>
       </c>
@@ -28274,7 +28625,7 @@
       <c r="O243" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="Q243" s="28" t="str">
+      <c r="Q243" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Sundry Plant &amp; Equipt</v>
       </c>
@@ -28376,7 +28727,7 @@
       <c r="O244" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="Q244" s="28" t="str">
+      <c r="Q244" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Test Equipment</v>
       </c>
@@ -28478,7 +28829,7 @@
       <c r="O245" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="Q245" s="28" t="str">
+      <c r="Q245" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Motor Vehicle</v>
       </c>
@@ -28580,7 +28931,7 @@
       <c r="O246" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="Q246" s="28" t="str">
+      <c r="Q246" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Tools</v>
       </c>
@@ -28682,7 +29033,7 @@
       <c r="O247" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="Q247" s="28" t="str">
+      <c r="Q247" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Furniture Fitting</v>
       </c>
@@ -28784,7 +29135,7 @@
       <c r="O248" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="Q248" s="28" t="str">
+      <c r="Q248" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Depre - Mobile Phone</v>
       </c>
@@ -28886,7 +29237,7 @@
       <c r="O249" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="Q249" s="28" t="str">
+      <c r="Q249" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Customer Claims</v>
       </c>
@@ -28988,7 +29339,7 @@
       <c r="O250" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="Q250" s="28" t="str">
+      <c r="Q250" s="26" t="str">
         <f t="shared" si="86"/>
         <v>Other Overhead</v>
       </c>
@@ -38615,9 +38966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I273" sqref="I273"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D102" sqref="D102:E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -38639,30 +38990,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>742</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>743</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>744</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>745</v>
       </c>
-      <c r="M2" s="23"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
@@ -40315,7 +40666,7 @@
       <c r="H86" s="20" t="s">
         <v>868</v>
       </c>
-      <c r="I86" s="25" t="s">
+      <c r="I86" s="23" t="s">
         <v>273</v>
       </c>
       <c r="J86" s="19"/>
@@ -40352,7 +40703,7 @@
         <v>265</v>
       </c>
       <c r="H88" s="20"/>
-      <c r="I88" s="25"/>
+      <c r="I88" s="23"/>
       <c r="J88" s="19"/>
       <c r="K88" s="19"/>
       <c r="L88" s="19"/>
@@ -40504,7 +40855,7 @@
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="22" t="s">
         <v>858</v>
       </c>
       <c r="E97" s="19" t="s">
@@ -40512,7 +40863,7 @@
       </c>
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
-      <c r="H97" s="24" t="s">
+      <c r="H97" s="22" t="s">
         <v>880</v>
       </c>
       <c r="I97" s="15" t="s">
@@ -40526,11 +40877,11 @@
     <row r="98" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
-      <c r="D98" s="24"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
-      <c r="H98" s="24" t="s">
+      <c r="H98" s="22" t="s">
         <v>894</v>
       </c>
       <c r="I98" s="19" t="s">
@@ -40544,11 +40895,11 @@
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
-      <c r="D99" s="24"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="19"/>
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
-      <c r="H99" s="24" t="s">
+      <c r="H99" s="22" t="s">
         <v>896</v>
       </c>
       <c r="I99" s="19" t="s">
@@ -40562,11 +40913,11 @@
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
-      <c r="D100" s="24"/>
+      <c r="D100" s="22"/>
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
-      <c r="H100" s="24" t="s">
+      <c r="H100" s="22" t="s">
         <v>895</v>
       </c>
       <c r="I100" s="19" t="s">
@@ -40580,11 +40931,11 @@
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
-      <c r="D101" s="24"/>
+      <c r="D101" s="22"/>
       <c r="E101" s="19"/>
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
-      <c r="H101" s="24"/>
+      <c r="H101" s="22"/>
       <c r="I101" s="19"/>
       <c r="J101" s="19"/>
       <c r="K101" s="19"/>
@@ -44056,4 +44407,586 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="5.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="33"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="33" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="33"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="33"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="34" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="33"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="33"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="34" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="33"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="34" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="33"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="33"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="34" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="34" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="33"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="33"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="33"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="34" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="33"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="33"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="33"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="34" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="35"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="34" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="33"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="35"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="34" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="33"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="35"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="34" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="35"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="35"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="34" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="35"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="41"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="34" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="34"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="34"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="34"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="34"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="35"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="35"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="34" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="34"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="34"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="34"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="34"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="35"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="35"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="34"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="34"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="19"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="34"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="34" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="19"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="34"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="19"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="34"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="34"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="19"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="34"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="34"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="34"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="34"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="19"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="34"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="34" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="19"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="34"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="34"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="34"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="34"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="34"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="19"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="34"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="19"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="34"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="19"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="34"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="19"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="35" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="D69" s="34"/>
+      <c r="E69" s="19"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="35"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="19"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="35"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="19"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="35"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="19"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="35"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="19"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="35"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="19"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="35"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="19"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="35"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="19"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="35"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="19"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="35"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>